--- a/vocabulary/mental_disorder.xlsx
+++ b/vocabulary/mental_disorder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="264">
   <si>
     <t>病症</t>
   </si>
@@ -36,772 +36,781 @@
     <t>是否為常見疾病</t>
   </si>
   <si>
+    <t>三環類抗抑鬱藥</t>
+  </si>
+  <si>
+    <t>6,440,000</t>
+  </si>
+  <si>
+    <t>大麻</t>
+  </si>
+  <si>
+    <t>42,000,000</t>
+  </si>
+  <si>
+    <t>中腦邊緣多巴胺系統</t>
+  </si>
+  <si>
+    <t>150,000</t>
+  </si>
+  <si>
+    <t>中樞神經系統興奮劑</t>
+  </si>
+  <si>
+    <t>1,360,000</t>
+  </si>
+  <si>
+    <t>反跳</t>
+  </si>
+  <si>
+    <t>280,000,000</t>
+  </si>
+  <si>
+    <t>幻覺</t>
+  </si>
+  <si>
+    <t>15,700,000</t>
+  </si>
+  <si>
+    <t>心理依賴</t>
+  </si>
+  <si>
+    <t>5,400,000</t>
+  </si>
+  <si>
+    <t>心境</t>
+  </si>
+  <si>
+    <t>53,900,000</t>
+  </si>
+  <si>
+    <t>心境障礙</t>
+  </si>
+  <si>
+    <t>3,300,000</t>
+  </si>
+  <si>
+    <t>木僵</t>
+  </si>
+  <si>
+    <t>7,510,000</t>
+  </si>
+  <si>
+    <t>失眠症</t>
+  </si>
+  <si>
+    <t>35,200,000</t>
+  </si>
+  <si>
+    <t>未分化型</t>
+  </si>
+  <si>
+    <t>18,200,000</t>
+  </si>
+  <si>
+    <t>未分類型精神病</t>
+  </si>
+  <si>
+    <t>2,640,000</t>
+  </si>
+  <si>
+    <t>全身電流傳導般的快感</t>
+  </si>
+  <si>
+    <t>70,200</t>
+  </si>
+  <si>
+    <t>妄想</t>
+  </si>
+  <si>
+    <t>119,000,000</t>
+  </si>
+  <si>
+    <t>妄想症</t>
+  </si>
+  <si>
+    <t>27,000,000</t>
+  </si>
+  <si>
+    <t>有害使用</t>
+  </si>
+  <si>
+    <t>147,000,000</t>
+  </si>
+  <si>
+    <t>自知力</t>
+  </si>
+  <si>
+    <t>356,000,000</t>
+  </si>
+  <si>
+    <t>自閉症</t>
+  </si>
+  <si>
+    <t>血管性痴呆</t>
+  </si>
+  <si>
+    <t>7,810,000</t>
+  </si>
+  <si>
+    <t>戒斷狀態</t>
+  </si>
+  <si>
+    <t>7,540,000</t>
+  </si>
+  <si>
+    <t>抑制劑</t>
+  </si>
+  <si>
+    <t>33,800,000</t>
+  </si>
+  <si>
+    <t>抑鬱性假性痴呆</t>
+  </si>
+  <si>
+    <t>674,000</t>
+  </si>
+  <si>
+    <t>抑鬱症</t>
+  </si>
+  <si>
+    <t>4,750,000</t>
+  </si>
+  <si>
+    <t>依賴</t>
+  </si>
+  <si>
+    <t>18,300,000</t>
+  </si>
+  <si>
+    <t>定向力</t>
+  </si>
+  <si>
+    <t>26,700,000</t>
+  </si>
+  <si>
+    <t>物質或成癮物質</t>
+  </si>
+  <si>
+    <t>5,360,000</t>
+  </si>
+  <si>
+    <t>阿片類</t>
+  </si>
+  <si>
+    <t>1,620,000</t>
+  </si>
+  <si>
+    <t>阿茲海默</t>
+  </si>
+  <si>
+    <t>3,000,000</t>
+  </si>
+  <si>
+    <t>阿爾茨海默病</t>
+  </si>
+  <si>
+    <t>7,340,000</t>
+  </si>
+  <si>
+    <t>青春型</t>
+  </si>
+  <si>
+    <t>173,000,000</t>
+  </si>
+  <si>
+    <t>思維中斷</t>
+  </si>
+  <si>
+    <t>8,700,000</t>
+  </si>
+  <si>
+    <t>思維奔逸</t>
+  </si>
+  <si>
+    <t>66,500</t>
+  </si>
+  <si>
+    <t>思維破裂</t>
+  </si>
+  <si>
+    <t>6,090,000</t>
+  </si>
+  <si>
+    <t>思維被洞悉</t>
+  </si>
+  <si>
+    <t>1,270,000</t>
+  </si>
+  <si>
+    <t>思維貧乏</t>
+  </si>
+  <si>
+    <t>915,000</t>
+  </si>
+  <si>
+    <t>思維插入</t>
+  </si>
+  <si>
+    <t>11,100,000</t>
+  </si>
+  <si>
+    <t>思維散漫</t>
+  </si>
+  <si>
+    <t>847,000</t>
+  </si>
+  <si>
+    <t>思維遲緩</t>
+  </si>
+  <si>
+    <t>1,740,000</t>
+  </si>
+  <si>
+    <t>思維擴散</t>
+  </si>
+  <si>
+    <t>6,220,000</t>
+  </si>
+  <si>
     <t>思覺失調症</t>
   </si>
   <si>
-    <t>2,170,000</t>
+    <t>1,840,000</t>
+  </si>
+  <si>
+    <t>急性腦病綜合徵</t>
+  </si>
+  <si>
+    <t>852,000</t>
+  </si>
+  <si>
+    <t>急性應激障礙</t>
+  </si>
+  <si>
+    <t>1,770,000</t>
+  </si>
+  <si>
+    <t>柯薩可夫綜合</t>
+  </si>
+  <si>
+    <t>10,400,000</t>
+  </si>
+  <si>
+    <t>氟哌啶醇</t>
+  </si>
+  <si>
+    <t>577,000</t>
+  </si>
+  <si>
+    <t>耐受性</t>
+  </si>
+  <si>
+    <t>89,900,000</t>
+  </si>
+  <si>
+    <t>致幻劑</t>
+  </si>
+  <si>
+    <t>7,730,000</t>
+  </si>
+  <si>
+    <t>重性精神病</t>
+  </si>
+  <si>
+    <t>23,800,000</t>
+  </si>
+  <si>
+    <t>剛塞綜合徵</t>
+  </si>
+  <si>
+    <t>8,740,000</t>
+  </si>
+  <si>
+    <t>恐慌症</t>
+  </si>
+  <si>
+    <t>40,100,000</t>
+  </si>
+  <si>
+    <t>恐懼症</t>
+  </si>
+  <si>
+    <t>7,380,000</t>
+  </si>
+  <si>
+    <t>病理性象徵性思維</t>
+  </si>
+  <si>
+    <t>128,000</t>
+  </si>
+  <si>
+    <t>病理性贅述</t>
+  </si>
+  <si>
+    <t>78,300</t>
+  </si>
+  <si>
+    <t>神經原纖維纏結</t>
+  </si>
+  <si>
+    <t>643,000</t>
+  </si>
+  <si>
+    <t>神經衰弱</t>
+  </si>
+  <si>
+    <t>1,750,000</t>
+  </si>
+  <si>
+    <t>酒精性幻覺症</t>
+  </si>
+  <si>
+    <t>733,000</t>
+  </si>
+  <si>
+    <t>酒精性妄想症</t>
+  </si>
+  <si>
+    <t>679,000</t>
+  </si>
+  <si>
+    <t>酒精誘發精神障礙</t>
+  </si>
+  <si>
+    <t>615,000</t>
+  </si>
+  <si>
+    <t>假性痴呆</t>
+  </si>
+  <si>
+    <t>3,270,000</t>
+  </si>
+  <si>
+    <t>偏執型</t>
+  </si>
+  <si>
+    <t>6,800,000</t>
+  </si>
+  <si>
+    <t>強制性覓藥行為</t>
+  </si>
+  <si>
+    <t>933,000</t>
+  </si>
+  <si>
+    <t>強迫症</t>
+  </si>
+  <si>
+    <t>10,700,000</t>
+  </si>
+  <si>
+    <t>強迫障礙</t>
+  </si>
+  <si>
+    <t>12,100,000</t>
+  </si>
+  <si>
+    <t>強迫觀念</t>
+  </si>
+  <si>
+    <t>情感性障礙</t>
+  </si>
+  <si>
+    <t>24,800,000</t>
+  </si>
+  <si>
+    <t>情緒高漲</t>
+  </si>
+  <si>
+    <t>839,000</t>
+  </si>
+  <si>
+    <t>產後憂鬱症</t>
+  </si>
+  <si>
+    <t>580,000</t>
+  </si>
+  <si>
+    <t>第一型雙極情感障礙單次躁症發作</t>
+  </si>
+  <si>
+    <t>214,000</t>
+  </si>
+  <si>
+    <t>脫毒</t>
+  </si>
+  <si>
+    <t>54,900,000</t>
+  </si>
+  <si>
+    <t>創傷後壓力症候群</t>
+  </si>
+  <si>
+    <t>268,000</t>
+  </si>
+  <si>
+    <t>創傷後應激障礙</t>
+  </si>
+  <si>
+    <t>2,560,000</t>
+  </si>
+  <si>
+    <t>單純型</t>
+  </si>
+  <si>
+    <t>58,800,000</t>
+  </si>
+  <si>
+    <t>單胺氧化酶抑制劑</t>
+  </si>
+  <si>
+    <t>191,000</t>
+  </si>
+  <si>
+    <t>喹硫平</t>
+  </si>
+  <si>
+    <t>689,000</t>
+  </si>
+  <si>
+    <t>揮發性溶劑</t>
+  </si>
+  <si>
+    <t>314,000</t>
+  </si>
+  <si>
+    <t>殘留型</t>
+  </si>
+  <si>
+    <t>34,500,000</t>
+  </si>
+  <si>
+    <t>氯丙嗪</t>
+  </si>
+  <si>
+    <t>2,280,000</t>
+  </si>
+  <si>
+    <t>氯氮平</t>
+  </si>
+  <si>
+    <t>2,900,000</t>
+  </si>
+  <si>
+    <t>渴求狀態</t>
+  </si>
+  <si>
+    <t>3,090,000</t>
+  </si>
+  <si>
+    <t>無用</t>
+  </si>
+  <si>
+    <t>62,200,000</t>
+  </si>
+  <si>
+    <t>無助</t>
+  </si>
+  <si>
+    <t>573,000,000</t>
+  </si>
+  <si>
+    <t>焦慮症</t>
+  </si>
+  <si>
+    <t>6,350,000</t>
+  </si>
+  <si>
+    <t>童樣痴呆</t>
+  </si>
+  <si>
+    <t>1,030,000</t>
+  </si>
+  <si>
+    <t>絕望</t>
+  </si>
+  <si>
+    <t>72,900,000</t>
+  </si>
+  <si>
+    <t>菸草</t>
+  </si>
+  <si>
+    <t>36,900,000</t>
+  </si>
+  <si>
+    <t>超價觀念</t>
+  </si>
+  <si>
+    <t>20,800,000</t>
+  </si>
+  <si>
+    <t>嗜睡症</t>
+  </si>
+  <si>
+    <t>5,370,000</t>
+  </si>
+  <si>
+    <t>奧氮平</t>
+  </si>
+  <si>
+    <t>3,260,000</t>
+  </si>
+  <si>
+    <t>意識</t>
+  </si>
+  <si>
+    <t>301,000,000</t>
+  </si>
+  <si>
+    <t>痴呆</t>
+  </si>
+  <si>
+    <t>25,900,000</t>
+  </si>
+  <si>
+    <t>違拗症</t>
+  </si>
+  <si>
+    <t>37,800</t>
+  </si>
+  <si>
+    <t>電休克</t>
+  </si>
+  <si>
+    <t>4,810,000</t>
+  </si>
+  <si>
+    <t>慢性腦綜合徵</t>
+  </si>
+  <si>
+    <t>9,120,000</t>
+  </si>
+  <si>
+    <t>犒賞系統</t>
+  </si>
+  <si>
+    <t>疑病妄想</t>
+  </si>
+  <si>
+    <t>2,740,000</t>
+  </si>
+  <si>
+    <t>精神分裂症</t>
+  </si>
+  <si>
+    <t>15,800,000</t>
+  </si>
+  <si>
+    <t>精神分裂症後抑鬱</t>
+  </si>
+  <si>
+    <t>6,510,000</t>
+  </si>
+  <si>
+    <t>精神活性物質</t>
+  </si>
+  <si>
+    <t>8,110,000</t>
+  </si>
+  <si>
+    <t>精神病學</t>
+  </si>
+  <si>
+    <t>24,700,000</t>
+  </si>
+  <si>
+    <t>精神發育遲滯</t>
+  </si>
+  <si>
+    <t>548,000</t>
+  </si>
+  <si>
+    <t>精神障礙</t>
+  </si>
+  <si>
+    <t>77,000,000</t>
+  </si>
+  <si>
+    <t>精神興奮劑</t>
+  </si>
+  <si>
+    <t>8,280,000</t>
+  </si>
+  <si>
+    <t>維思通</t>
+  </si>
+  <si>
+    <t>86,400,000</t>
+  </si>
+  <si>
+    <t>緊張型</t>
+  </si>
+  <si>
+    <t>124,000,000</t>
+  </si>
+  <si>
+    <t>語詞新作</t>
+  </si>
+  <si>
+    <t>137,000</t>
+  </si>
+  <si>
+    <t>廣泛性焦慮障礙</t>
+  </si>
+  <si>
+    <t>2,590,000</t>
+  </si>
+  <si>
+    <t>憂鬱</t>
+  </si>
+  <si>
+    <t>46,200,000</t>
+  </si>
+  <si>
+    <t>憂鬱症</t>
+  </si>
+  <si>
+    <t>27,600,000</t>
+  </si>
+  <si>
+    <t>適應障礙</t>
+  </si>
+  <si>
+    <t>29,700,000</t>
+  </si>
+  <si>
+    <t>鋰鹽</t>
+  </si>
+  <si>
+    <t>7,240,000</t>
+  </si>
+  <si>
+    <t>器質性及物質引發的精神疾病</t>
+  </si>
+  <si>
+    <t>50,700</t>
+  </si>
+  <si>
+    <t>興奮劑</t>
+  </si>
+  <si>
+    <t>29,200,000</t>
+  </si>
+  <si>
+    <t>選擇性5-HT再攝取抑制劑</t>
+  </si>
+  <si>
+    <t>65,300</t>
+  </si>
+  <si>
+    <t>遺忘綜合</t>
+  </si>
+  <si>
+    <t>10,500,000</t>
+  </si>
+  <si>
+    <t>錯覺</t>
+  </si>
+  <si>
+    <t>20,100,000</t>
+  </si>
+  <si>
+    <t>濫用</t>
+  </si>
+  <si>
+    <t>鍾情妄想</t>
+  </si>
+  <si>
+    <t>396,000</t>
+  </si>
+  <si>
+    <t>顆粒空泡變性</t>
+  </si>
+  <si>
+    <t>28,800,000</t>
+  </si>
+  <si>
+    <t>癔症</t>
+  </si>
+  <si>
+    <t>1,590,000</t>
+  </si>
+  <si>
+    <t>癔症球</t>
+  </si>
+  <si>
+    <t>306,000</t>
+  </si>
+  <si>
+    <t>軀體形式障礙</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
+    <t>軀體依賴</t>
+  </si>
+  <si>
+    <t>1,470,000</t>
+  </si>
+  <si>
+    <t>雙極性情感精神病</t>
+  </si>
+  <si>
+    <t>15,000</t>
+  </si>
+  <si>
+    <t>邊緣性人格疾患</t>
+  </si>
+  <si>
+    <t>109,000</t>
+  </si>
+  <si>
+    <t>嚴重憂鬱症</t>
+  </si>
+  <si>
+    <t>3,110,000</t>
+  </si>
+  <si>
+    <t>譫妄</t>
+  </si>
+  <si>
+    <t>680,000</t>
+  </si>
+  <si>
+    <t>躁鬱</t>
+  </si>
+  <si>
+    <t>2,670,000</t>
+  </si>
+  <si>
+    <t>躁鬱症</t>
+  </si>
+  <si>
+    <t>2,410,000</t>
+  </si>
+  <si>
+    <t>騰雲駕霧感</t>
+  </si>
+  <si>
+    <t>503,000</t>
+  </si>
+  <si>
+    <t>聽幻覺</t>
+  </si>
+  <si>
+    <t>7,430,000</t>
+  </si>
+  <si>
+    <t>邏輯倒錯性思維</t>
+  </si>
+  <si>
+    <t>30,200</t>
   </si>
   <si>
     <t>精神分裂症</t>
-  </si>
-  <si>
-    <t>20,900,000</t>
-  </si>
-  <si>
-    <t>妄想症</t>
-  </si>
-  <si>
-    <t>27,000,000</t>
-  </si>
-  <si>
-    <t>憂鬱症</t>
-  </si>
-  <si>
-    <t>24,700,000</t>
-  </si>
-  <si>
-    <t>嚴重憂鬱症</t>
-  </si>
-  <si>
-    <t>2,830,000</t>
-  </si>
-  <si>
-    <t>雙極性情感精神病</t>
-  </si>
-  <si>
-    <t>14,100</t>
-  </si>
-  <si>
-    <t>躁鬱症</t>
-  </si>
-  <si>
-    <t>1,670,000</t>
-  </si>
-  <si>
-    <t>強迫症</t>
-  </si>
-  <si>
-    <t>8,680,000</t>
-  </si>
-  <si>
-    <t>恐慌症</t>
-  </si>
-  <si>
-    <t>8,550,000</t>
-  </si>
-  <si>
-    <t>器質性及物質引發的精神疾病</t>
-  </si>
-  <si>
-    <t>52,800</t>
-  </si>
-  <si>
-    <t>創傷後壓力症候群</t>
-  </si>
-  <si>
-    <t>287,000</t>
-  </si>
-  <si>
-    <t>未分類型精神病</t>
-  </si>
-  <si>
-    <t>2,580,000</t>
-  </si>
-  <si>
-    <t>第一型雙極情感障礙單次躁症發作</t>
-  </si>
-  <si>
-    <t>202,000</t>
-  </si>
-  <si>
-    <t>邊緣性人格疾患</t>
-  </si>
-  <si>
-    <t>109,000</t>
-  </si>
-  <si>
-    <t>酒精誘發精神障礙</t>
-  </si>
-  <si>
-    <t>683,000</t>
-  </si>
-  <si>
-    <t>自閉症</t>
-  </si>
-  <si>
-    <t>29,400,000</t>
-  </si>
-  <si>
-    <t>聽幻覺</t>
-  </si>
-  <si>
-    <t>8,610,000</t>
-  </si>
-  <si>
-    <t>產後憂鬱症</t>
-  </si>
-  <si>
-    <t>660,000</t>
-  </si>
-  <si>
-    <t>精神病學</t>
-  </si>
-  <si>
-    <t>20,100,000</t>
-  </si>
-  <si>
-    <t>重性精神病</t>
-  </si>
-  <si>
-    <t>21,600,000</t>
-  </si>
-  <si>
-    <t>精神障礙</t>
-  </si>
-  <si>
-    <t>77,800,000</t>
-  </si>
-  <si>
-    <t>思維奔逸</t>
-  </si>
-  <si>
-    <t>75,900</t>
-  </si>
-  <si>
-    <t>思維遲緩</t>
-  </si>
-  <si>
-    <t>1,800,000</t>
-  </si>
-  <si>
-    <t>思維貧乏</t>
-  </si>
-  <si>
-    <t>1,090,000</t>
-  </si>
-  <si>
-    <t>思維散漫</t>
-  </si>
-  <si>
-    <t>737,000</t>
-  </si>
-  <si>
-    <t>思維破裂</t>
-  </si>
-  <si>
-    <t>3,700,000</t>
-  </si>
-  <si>
-    <t>病理性贅述</t>
-  </si>
-  <si>
-    <t>98,600</t>
-  </si>
-  <si>
-    <t>思維中斷</t>
-  </si>
-  <si>
-    <t>4,840,000</t>
-  </si>
-  <si>
-    <t>思維插入</t>
-  </si>
-  <si>
-    <t>6,170,000</t>
-  </si>
-  <si>
-    <t>思維擴散</t>
-  </si>
-  <si>
-    <t>5,950,000</t>
-  </si>
-  <si>
-    <t>病理性象徵性思維</t>
-  </si>
-  <si>
-    <t>132,000</t>
-  </si>
-  <si>
-    <t>語詞新作</t>
-  </si>
-  <si>
-    <t>162,000</t>
-  </si>
-  <si>
-    <t>邏輯倒錯性思維</t>
-  </si>
-  <si>
-    <t>30,900</t>
-  </si>
-  <si>
-    <t>強迫觀念</t>
-  </si>
-  <si>
-    <t>5,890,000</t>
-  </si>
-  <si>
-    <t>妄想</t>
-  </si>
-  <si>
-    <t>136,000,000</t>
-  </si>
-  <si>
-    <t>急性腦病綜合徵</t>
-  </si>
-  <si>
-    <t>994,000</t>
-  </si>
-  <si>
-    <t>疑病妄想</t>
-  </si>
-  <si>
-    <t>2,850,000</t>
-  </si>
-  <si>
-    <t>鍾情妄想</t>
-  </si>
-  <si>
-    <t>358,000</t>
-  </si>
-  <si>
-    <t>思維被洞悉d</t>
-  </si>
-  <si>
-    <t>314,000</t>
-  </si>
-  <si>
-    <t>超價觀念</t>
-  </si>
-  <si>
-    <t>17,400,000</t>
-  </si>
-  <si>
-    <t>精神發育遲滯</t>
-  </si>
-  <si>
-    <t>576,000</t>
-  </si>
-  <si>
-    <t>痴呆</t>
-  </si>
-  <si>
-    <t>27,200,000</t>
-  </si>
-  <si>
-    <t>慢性腦綜合徵</t>
-  </si>
-  <si>
-    <t>9,220,000</t>
-  </si>
-  <si>
-    <t>假性痴呆</t>
-  </si>
-  <si>
-    <t>3,230,000</t>
-  </si>
-  <si>
-    <t>剛塞綜合徵</t>
-  </si>
-  <si>
-    <t>9,490,000</t>
-  </si>
-  <si>
-    <t>童樣痴呆</t>
-  </si>
-  <si>
-    <t>962,000</t>
-  </si>
-  <si>
-    <t>抑鬱性假性痴呆</t>
-  </si>
-  <si>
-    <t>646,000</t>
-  </si>
-  <si>
-    <t>木僵</t>
-  </si>
-  <si>
-    <t>8,300,000</t>
-  </si>
-  <si>
-    <t>譫妄</t>
-  </si>
-  <si>
-    <t>775,000</t>
-  </si>
-  <si>
-    <t>心境障礙</t>
-  </si>
-  <si>
-    <t>3,810,000</t>
-  </si>
-  <si>
-    <t>情感性障礙</t>
-  </si>
-  <si>
-    <t>21,300,000</t>
-  </si>
-  <si>
-    <t>心境</t>
-  </si>
-  <si>
-    <t>64,500,000</t>
-  </si>
-  <si>
-    <t>絕望</t>
-  </si>
-  <si>
-    <t>77,900,000</t>
-  </si>
-  <si>
-    <t>無助</t>
-  </si>
-  <si>
-    <t>617,000,000</t>
-  </si>
-  <si>
-    <t>無用</t>
-  </si>
-  <si>
-    <t>53,100,000</t>
-  </si>
-  <si>
-    <t>鋰鹽</t>
-  </si>
-  <si>
-    <t>8,620,000</t>
-  </si>
-  <si>
-    <t>氯丙嗪</t>
-  </si>
-  <si>
-    <t>1,950,000</t>
-  </si>
-  <si>
-    <t>氟哌啶醇</t>
-  </si>
-  <si>
-    <t>615,000</t>
-  </si>
-  <si>
-    <t>氯氮平</t>
-  </si>
-  <si>
-    <t>2,820,000</t>
-  </si>
-  <si>
-    <t>奧氮平</t>
-  </si>
-  <si>
-    <t>3,380,000</t>
-  </si>
-  <si>
-    <t>維思通</t>
-  </si>
-  <si>
-    <t>117,000,000</t>
-  </si>
-  <si>
-    <t>喹硫平</t>
-  </si>
-  <si>
-    <t>361,000</t>
-  </si>
-  <si>
-    <t>電休克</t>
-  </si>
-  <si>
-    <t>4,540,000</t>
-  </si>
-  <si>
-    <t>三環類抗抑鬱藥</t>
-  </si>
-  <si>
-    <t>4,490,000</t>
-  </si>
-  <si>
-    <t>單胺氧化酶抑制劑</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>選擇性5-HT再攝取抑制劑</t>
-  </si>
-  <si>
-    <t>70,400</t>
-  </si>
-  <si>
-    <t>遺忘綜合</t>
-  </si>
-  <si>
-    <t>11,600,000</t>
-  </si>
-  <si>
-    <t>柯薩可夫綜合</t>
-  </si>
-  <si>
-    <t>11,100,000</t>
-  </si>
-  <si>
-    <t>阿爾茨海默病</t>
-  </si>
-  <si>
-    <t>8,070,000</t>
-  </si>
-  <si>
-    <t>阿茲海默</t>
-  </si>
-  <si>
-    <t>神經原纖維纏結</t>
-  </si>
-  <si>
-    <t>604,000</t>
-  </si>
-  <si>
-    <t>顆粒空泡變性</t>
-  </si>
-  <si>
-    <t>379,000</t>
-  </si>
-  <si>
-    <t>血管性痴呆</t>
-  </si>
-  <si>
-    <t>8,240,000</t>
-  </si>
-  <si>
-    <t>恐懼症</t>
-  </si>
-  <si>
-    <t>6,970,000</t>
-  </si>
-  <si>
-    <t>焦慮症</t>
-  </si>
-  <si>
-    <t>7,740,000</t>
-  </si>
-  <si>
-    <t>廣泛性焦慮障礙</t>
-  </si>
-  <si>
-    <t>2,630,000</t>
-  </si>
-  <si>
-    <t>強迫障礙</t>
-  </si>
-  <si>
-    <t>9,130,000</t>
-  </si>
-  <si>
-    <t>軀體形式障礙</t>
-  </si>
-  <si>
-    <t>1,130,000</t>
-  </si>
-  <si>
-    <t>神經衰弱</t>
-  </si>
-  <si>
-    <t>1,550,000</t>
-  </si>
-  <si>
-    <t>癔症</t>
-  </si>
-  <si>
-    <t>1,830,000</t>
-  </si>
-  <si>
-    <t>癔症球</t>
-  </si>
-  <si>
-    <t>338,000</t>
-  </si>
-  <si>
-    <t>嗜睡症</t>
-  </si>
-  <si>
-    <t>5,470,000</t>
-  </si>
-  <si>
-    <t>適應障礙</t>
-  </si>
-  <si>
-    <t>25,600,000</t>
-  </si>
-  <si>
-    <t>精神分裂症</t>
-  </si>
-  <si>
-    <t>偏執型</t>
-  </si>
-  <si>
-    <t>5,620,000</t>
-  </si>
-  <si>
-    <t>緊張型</t>
-  </si>
-  <si>
-    <t>140,000,000</t>
-  </si>
-  <si>
-    <t>青春型</t>
-  </si>
-  <si>
-    <t>176,000,000</t>
-  </si>
-  <si>
-    <t>單純型</t>
-  </si>
-  <si>
-    <t>53,700,000</t>
-  </si>
-  <si>
-    <t>未分化型</t>
-  </si>
-  <si>
-    <t>15,200,000</t>
-  </si>
-  <si>
-    <t>殘留型</t>
-  </si>
-  <si>
-    <t>31,600,000</t>
-  </si>
-  <si>
-    <t>精神分裂症後抑鬱</t>
-  </si>
-  <si>
-    <t>5,940,000</t>
-  </si>
-  <si>
-    <t>精神活性物質</t>
-  </si>
-  <si>
-    <t>9,320,000</t>
-  </si>
-  <si>
-    <t>物質或成癮物質</t>
-  </si>
-  <si>
-    <t>5,310,000</t>
-  </si>
-  <si>
-    <t>依賴</t>
-  </si>
-  <si>
-    <t>16,500,000</t>
-  </si>
-  <si>
-    <t>強制性覓藥行為</t>
-  </si>
-  <si>
-    <t>943,000</t>
-  </si>
-  <si>
-    <t>軀體依賴</t>
-  </si>
-  <si>
-    <t>1,450,000</t>
-  </si>
-  <si>
-    <t>心理依賴</t>
-  </si>
-  <si>
-    <t>5,460,000</t>
-  </si>
-  <si>
-    <t>渴求狀態</t>
-  </si>
-  <si>
-    <t>2,670,000</t>
-  </si>
-  <si>
-    <t>濫用</t>
-  </si>
-  <si>
-    <t>14,600,000</t>
-  </si>
-  <si>
-    <t>有害使用</t>
-  </si>
-  <si>
-    <t>151,000,000</t>
-  </si>
-  <si>
-    <t>耐受性</t>
-  </si>
-  <si>
-    <t>71,900,000</t>
-  </si>
-  <si>
-    <t>戒斷狀態</t>
-  </si>
-  <si>
-    <t>8,500,000</t>
-  </si>
-  <si>
-    <t>反跳</t>
-  </si>
-  <si>
-    <t>227,000,000</t>
-  </si>
-  <si>
-    <t>抑制劑</t>
-  </si>
-  <si>
-    <t>37,000,000</t>
-  </si>
-  <si>
-    <t>興奮劑</t>
-  </si>
-  <si>
-    <t>31,400,000</t>
-  </si>
-  <si>
-    <t>大麻</t>
-  </si>
-  <si>
-    <t>51,500,000</t>
-  </si>
-  <si>
-    <t>致幻劑</t>
-  </si>
-  <si>
-    <t>17,700,000</t>
-  </si>
-  <si>
-    <t>阿片類</t>
-  </si>
-  <si>
-    <t>1,490,000</t>
-  </si>
-  <si>
-    <t>揮發性溶劑</t>
-  </si>
-  <si>
-    <t>290,000</t>
-  </si>
-  <si>
-    <t>菸草</t>
-  </si>
-  <si>
-    <t>37,100,000</t>
-  </si>
-  <si>
-    <t>犒賞系統</t>
-  </si>
-  <si>
-    <t>983,000</t>
-  </si>
-  <si>
-    <t>中腦邊緣多巴胺系統</t>
-  </si>
-  <si>
-    <t>144,000</t>
-  </si>
-  <si>
-    <t>脫毒</t>
-  </si>
-  <si>
-    <t>57,100,000</t>
-  </si>
-  <si>
-    <t>中樞神經系統興奮劑</t>
-  </si>
-  <si>
-    <t>1,360,000</t>
-  </si>
-  <si>
-    <t>精神興奮劑</t>
-  </si>
-  <si>
-    <t>8,230,000</t>
-  </si>
-  <si>
-    <t>騰雲駕霧感</t>
-  </si>
-  <si>
-    <t>546,000</t>
-  </si>
-  <si>
-    <t>全身電流傳導般的快感</t>
-  </si>
-  <si>
-    <t>68,500</t>
-  </si>
-  <si>
-    <t>酒精性幻覺症</t>
-  </si>
-  <si>
-    <t>742,000</t>
-  </si>
-  <si>
-    <t>酒精性妄想症</t>
-  </si>
-  <si>
-    <t>590,000</t>
-  </si>
-  <si>
-    <t>錯覺</t>
-  </si>
-  <si>
-    <t>24,300,000</t>
-  </si>
-  <si>
-    <t>意識</t>
-  </si>
-  <si>
-    <t>297,000,000</t>
-  </si>
-  <si>
-    <t>幻覺</t>
-  </si>
-  <si>
-    <t>14,500,000</t>
-  </si>
-  <si>
-    <t>定向力</t>
-  </si>
-  <si>
-    <t>18,900,000</t>
-  </si>
-  <si>
-    <t>自知力</t>
-  </si>
-  <si>
-    <t>418,000,000</t>
-  </si>
-  <si>
-    <t>失眠症</t>
-  </si>
-  <si>
-    <t>28,100,000</t>
-  </si>
-  <si>
-    <t>違拗症</t>
-  </si>
-  <si>
-    <t>51,800</t>
-  </si>
-  <si>
-    <t>創傷後應激障礙</t>
-  </si>
-  <si>
-    <t>2,510,000</t>
-  </si>
-  <si>
-    <t>急性應激障礙</t>
-  </si>
-  <si>
-    <t>1,660,000</t>
-  </si>
-  <si>
-    <t>情緒高漲</t>
-  </si>
-  <si>
-    <t>982,000</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1187,7 +1196,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" si="0">LOG10(B2)</f>
-        <v>6.3364597338485291</v>
+        <v>6.8088858673598125</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="1">IF(C2&lt;6.05,0,1)</f>
@@ -1207,7 +1216,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>7.3201462861110542</v>
+        <v>7.6232492903979008</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
@@ -1227,15 +1236,15 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>7.4313637641589869</v>
+        <v>5.1760912590556813</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,7 +1256,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>7.3926969532596658</v>
+        <v>6.1335389083702179</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -1267,7 +1276,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.4517864355242907</v>
+        <v>8.4471580313422194</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -1287,15 +1296,15 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>4.1492191126553797</v>
+        <v>7.195899652409234</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,7 +1316,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6.2227164711475833</v>
+        <v>6.7323937598229682</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -1327,7 +1336,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.9385197251764916</v>
+        <v>7.7315887651867383</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -1347,7 +1356,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.9319661147281728</v>
+        <v>6.5185139398778871</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -1367,15 +1376,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>4.7226339225338121</v>
+        <v>6.8756399370041681</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,15 +1396,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>5.4578818967339924</v>
+        <v>7.5465426634781307</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,7 +1416,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6.4116197059632301</v>
+        <v>7.2600713879850751</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -1427,15 +1436,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>5.3053513694466234</v>
+        <v>6.4216039268698308</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,7 +1456,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>5.0374264979406238</v>
+        <v>4.8463371121298051</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -1467,15 +1476,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>5.8344207036815323</v>
+        <v>8.075546961392531</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1496,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>7.4683473304121577</v>
+        <v>7.4313637641589869</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -1507,7 +1516,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6.935003151453655</v>
+        <v>8.1673173347481764</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -1527,15 +1536,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>5.8195439355418683</v>
+        <v>8.5514499979728757</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,11 +1552,11 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>7.3031960574204886</v>
+        <v>7.4313637641589869</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -1560,14 +1569,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>7.3344537511509307</v>
+        <v>6.8926510338772999</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -1580,14 +1589,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>7.8909795969896885</v>
+        <v>6.8773713458697738</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -1600,94 +1609,94 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>4.8802417758954801</v>
+        <v>7.5289167002776551</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>6.2552725051033065</v>
+        <v>5.8286598965353198</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>6.0374264979406238</v>
+        <v>6.6766936096248664</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5.8674674878590514</v>
+        <v>7.2624510897304297</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>6.568201724066995</v>
+        <v>7.426511261364575</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -1700,34 +1709,34 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>4.993876914941211</v>
+        <v>6.7291647896927698</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>6.6848453616444123</v>
+        <v>6.2095150145426308</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -1740,14 +1749,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>6.790285164033242</v>
+        <v>6.4771212547196626</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -1760,14 +1769,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>6.7745169657285498</v>
+        <v>6.8656960599160701</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -1780,54 +1789,54 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>5.1205739312058496</v>
+        <v>8.238046103128795</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>5.2095150145426308</v>
+        <v>6.9395192526186182</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C65" si="3">LOG10(B34)</f>
-        <v>4.4899584794248346</v>
+        <v>4.8228216453031045</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D65" si="4">IF(C34&lt;6.05,0,1)</f>
@@ -1840,14 +1849,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>6.7701152947871019</v>
+        <v>6.7846172926328752</v>
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
@@ -1860,14 +1869,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>8.1335389083702179</v>
+        <v>6.1038037209559572</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
@@ -1880,14 +1889,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>5.9973863843973136</v>
+        <v>5.9614210940664485</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
@@ -1900,14 +1909,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>6.4548448600085102</v>
+        <v>7.0453229787866576</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
@@ -1920,14 +1929,14 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>5.5538830266438746</v>
+        <v>5.9278834103307068</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
@@ -1940,34 +1949,34 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>5.4969296480732153</v>
+        <v>6.2405492482825995</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>7.2405492482825995</v>
+        <v>6.7937903846908183</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
@@ -1980,54 +1989,54 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>5.7604224834232118</v>
+        <v>6.2648178230095368</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>7.4345689040341991</v>
+        <v>5.9304395947666997</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>6.9647309210536292</v>
+        <v>6.2479732663618064</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
@@ -2040,14 +2049,14 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>6.509202522331103</v>
+        <v>7.0170333392987807</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
@@ -2060,74 +2069,74 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>6.9772662124272928</v>
+        <v>5.7611758131557318</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>5.9831750720378132</v>
+        <v>7.9537596917332287</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>5.8102325179950842</v>
+        <v>6.888179493918325</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>6.9190780923760737</v>
+        <v>7.3765769570565123</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
@@ -2140,34 +2149,34 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>5.8893017025063106</v>
+        <v>6.9415114326344032</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>6.580924975675619</v>
+        <v>7.6031443726201822</v>
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
@@ -2180,14 +2189,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>7.3283796034387381</v>
+        <v>6.8680563618230419</v>
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
@@ -2200,74 +2209,74 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
       </c>
       <c r="C53">
         <f t="shared" si="3"/>
-        <v>7.8095597146352675</v>
+        <v>5.1072099696478688</v>
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
       </c>
       <c r="C54">
         <f t="shared" si="3"/>
-        <v>7.8915374576725643</v>
+        <v>4.8937617620579434</v>
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
       </c>
       <c r="C55">
         <f t="shared" si="3"/>
-        <v>8.7902851640332411</v>
+        <v>5.8082109729242219</v>
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
       </c>
       <c r="C56">
         <f t="shared" si="3"/>
-        <v>7.725094521081469</v>
+        <v>6.2430380486862944</v>
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
@@ -2280,50 +2289,50 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
       </c>
       <c r="C57">
         <f t="shared" si="3"/>
-        <v>6.9355072658247128</v>
+        <v>5.8651039746411282</v>
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
       </c>
       <c r="C58">
         <f t="shared" si="3"/>
-        <v>6.2900346113625183</v>
+        <v>5.8318697742805012</v>
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
       </c>
       <c r="C59">
         <f t="shared" si="3"/>
@@ -2340,14 +2349,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
       </c>
       <c r="C60">
         <f t="shared" si="3"/>
-        <v>6.4502491083193609</v>
+        <v>6.5145477526602864</v>
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
@@ -2360,14 +2369,14 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
       <c r="C61">
         <f t="shared" si="3"/>
-        <v>6.5289167002776551</v>
+        <v>6.8325089127062366</v>
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
@@ -2380,54 +2389,54 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
       </c>
       <c r="C62">
         <f t="shared" si="3"/>
-        <v>8.0681858617461621</v>
+        <v>5.9698816437464997</v>
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
       </c>
       <c r="C63">
         <f t="shared" si="3"/>
-        <v>5.5575072019056577</v>
+        <v>7.0293837776852097</v>
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
       </c>
       <c r="C64">
         <f t="shared" si="3"/>
-        <v>6.6570558528571038</v>
+        <v>7.0827853703164498</v>
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
@@ -2440,14 +2449,14 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <f t="shared" si="3"/>
-        <v>6.6522463410033232</v>
+        <v>6.888179493918325</v>
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
@@ -2460,34 +2469,34 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C97" si="6">LOG10(B66)</f>
-        <v>5.3010299956639813</v>
+        <v>7.394451680826216</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D97" si="7">IF(C66&lt;6.05,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E97" si="8">IF(D66=1,"常見","不常見")</f>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67">
         <f t="shared" si="6"/>
-        <v>4.847572659142112</v>
+        <v>5.9237619608287</v>
       </c>
       <c r="D67">
         <f t="shared" si="7"/>
@@ -2500,54 +2509,54 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68">
         <f t="shared" si="6"/>
-        <v>7.0644579892269181</v>
+        <v>5.7634279935629369</v>
       </c>
       <c r="D68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69">
         <f t="shared" si="6"/>
-        <v>7.0453229787866576</v>
+        <v>5.330413773349191</v>
       </c>
       <c r="D69">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
-        <v>6.9068735347220702</v>
+        <v>7.7395723444500923</v>
       </c>
       <c r="D70">
         <f t="shared" si="7"/>
@@ -2560,134 +2569,134 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
-        <v>6.509202522331103</v>
+        <v>5.4281347940287885</v>
       </c>
       <c r="D71">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>145</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
-        <v>5.7810369386211322</v>
+        <v>6.4082399653118491</v>
       </c>
       <c r="D72">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
-        <v>5.5786392099680722</v>
+        <v>7.7693773260761381</v>
       </c>
       <c r="D73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" t="s">
-        <v>149</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
-        <v>6.9159272116971158</v>
+        <v>5.2810333672477272</v>
       </c>
       <c r="D74">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" t="s">
-        <v>151</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
-        <v>6.8432327780980096</v>
+        <v>5.8382192219076261</v>
       </c>
       <c r="D75">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>153</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
-        <v>6.8887409606828927</v>
+        <v>5.4969296480732153</v>
       </c>
       <c r="D76">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>155</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
-        <v>6.419955748489758</v>
+        <v>7.5378190950732744</v>
       </c>
       <c r="D77">
         <f t="shared" si="7"/>
@@ -2700,14 +2709,14 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
-        <v>6.9604707775342991</v>
+        <v>6.357934847000454</v>
       </c>
       <c r="D78">
         <f t="shared" si="7"/>
@@ -2720,14 +2729,14 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
       </c>
       <c r="C79">
         <f t="shared" si="6"/>
-        <v>6.0530784434834199</v>
+        <v>6.4623979978989565</v>
       </c>
       <c r="D79">
         <f t="shared" si="7"/>
@@ -2740,14 +2749,14 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>161</v>
       </c>
       <c r="C80">
         <f t="shared" si="6"/>
-        <v>6.1903316981702918</v>
+        <v>6.4899584794248346</v>
       </c>
       <c r="D80">
         <f t="shared" si="7"/>
@@ -2760,14 +2769,14 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" t="s">
-        <v>163</v>
       </c>
       <c r="C81">
         <f t="shared" si="6"/>
-        <v>6.2624510897304297</v>
+        <v>7.7937903846908183</v>
       </c>
       <c r="D81">
         <f t="shared" si="7"/>
@@ -2780,34 +2789,34 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>164</v>
-      </c>
-      <c r="B82" t="s">
-        <v>165</v>
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
-        <v>5.5289167002776551</v>
+        <v>8.7581546219673907</v>
       </c>
       <c r="D82">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
-      </c>
-      <c r="B83" t="s">
-        <v>167</v>
       </c>
       <c r="C83">
         <f t="shared" si="6"/>
-        <v>6.7379873263334309</v>
+        <v>6.802773725291976</v>
       </c>
       <c r="D83">
         <f t="shared" si="7"/>
@@ -2820,34 +2829,34 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
-        <v>7.4082399653118491</v>
+        <v>6.012837224705172</v>
       </c>
       <c r="D84">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
         <v>170</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
-        <v>7.3201462861110542</v>
+        <v>7.8627275283179747</v>
       </c>
       <c r="D85">
         <f t="shared" si="7"/>
@@ -2867,7 +2876,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
-        <v>6.7497363155690611</v>
+        <v>7.5670263661590607</v>
       </c>
       <c r="D86">
         <f t="shared" si="7"/>
@@ -2887,7 +2896,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
-        <v>8.1461280356782382</v>
+        <v>7.318063334962762</v>
       </c>
       <c r="D87">
         <f t="shared" si="7"/>
@@ -2907,7 +2916,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
-        <v>8.2455126678141504</v>
+        <v>6.7299742856995559</v>
       </c>
       <c r="D88">
         <f t="shared" si="7"/>
@@ -2927,7 +2936,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
-        <v>7.7299742856995559</v>
+        <v>6.5132176000679394</v>
       </c>
       <c r="D89">
         <f t="shared" si="7"/>
@@ -2947,7 +2956,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
-        <v>7.1818435879447726</v>
+        <v>8.478566495593844</v>
       </c>
       <c r="D90">
         <f t="shared" si="7"/>
@@ -2967,7 +2976,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="6"/>
-        <v>7.4996870826184034</v>
+        <v>7.4132997640812519</v>
       </c>
       <c r="D91">
         <f t="shared" si="7"/>
@@ -2987,15 +2996,15 @@
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
-        <v>6.7737864449811935</v>
+        <v>4.5774917998372251</v>
       </c>
       <c r="D92">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3016,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="6"/>
-        <v>6.9694159123539814</v>
+        <v>6.6821450763738319</v>
       </c>
       <c r="D93">
         <f t="shared" si="7"/>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="6"/>
-        <v>6.725094521081469</v>
+        <v>6.9599948383284165</v>
       </c>
       <c r="D94">
         <f t="shared" si="7"/>
@@ -3043,11 +3052,11 @@
         <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
-        <v>7.2174839442139067</v>
+        <v>6.1038037209559572</v>
       </c>
       <c r="D95">
         <f t="shared" si="7"/>
@@ -3060,34 +3069,34 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
         <v>191</v>
-      </c>
-      <c r="B96" t="s">
-        <v>192</v>
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
-        <v>5.9745116927373285</v>
+        <v>6.4377505628203879</v>
       </c>
       <c r="D96">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
         <v>193</v>
-      </c>
-      <c r="B97" t="s">
-        <v>194</v>
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
-        <v>6.1613680022349753</v>
+        <v>7.1986570869544222</v>
       </c>
       <c r="D97">
         <f t="shared" si="7"/>
@@ -3100,14 +3109,14 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
         <v>195</v>
-      </c>
-      <c r="B98" t="s">
-        <v>196</v>
       </c>
       <c r="C98">
         <f t="shared" ref="C98:C129" si="9">LOG10(B98)</f>
-        <v>6.7371926427047368</v>
+        <v>6.8135809885681917</v>
       </c>
       <c r="D98">
         <f t="shared" ref="D98:D129" si="10">IF(C98&lt;6.05,0,1)</f>
@@ -3120,14 +3129,14 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
         <v>197</v>
-      </c>
-      <c r="B99" t="s">
-        <v>198</v>
       </c>
       <c r="C99">
         <f t="shared" si="9"/>
-        <v>6.426511261364575</v>
+        <v>6.909020854211156</v>
       </c>
       <c r="D99">
         <f t="shared" si="10"/>
@@ -3140,14 +3149,14 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
         <v>199</v>
-      </c>
-      <c r="B100" t="s">
-        <v>200</v>
       </c>
       <c r="C100">
         <f t="shared" si="9"/>
-        <v>7.1643528557844371</v>
+        <v>7.3926969532596658</v>
       </c>
       <c r="D100">
         <f t="shared" si="10"/>
@@ -3160,34 +3169,34 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
         <v>201</v>
-      </c>
-      <c r="B101" t="s">
-        <v>202</v>
       </c>
       <c r="C101">
         <f t="shared" si="9"/>
-        <v>8.1789769472931688</v>
+        <v>5.7387805584843692</v>
       </c>
       <c r="D101">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
         <v>203</v>
-      </c>
-      <c r="B102" t="s">
-        <v>204</v>
       </c>
       <c r="C102">
         <f t="shared" si="9"/>
-        <v>7.8567288903828825</v>
+        <v>7.8864907251724823</v>
       </c>
       <c r="D102">
         <f t="shared" si="10"/>
@@ -3200,14 +3209,14 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
         <v>205</v>
-      </c>
-      <c r="B103" t="s">
-        <v>206</v>
       </c>
       <c r="C103">
         <f t="shared" si="9"/>
-        <v>6.9294189257142929</v>
+        <v>6.9180303367848799</v>
       </c>
       <c r="D103">
         <f t="shared" si="10"/>
@@ -3220,14 +3229,14 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
         <v>207</v>
-      </c>
-      <c r="B104" t="s">
-        <v>208</v>
       </c>
       <c r="C104">
         <f t="shared" si="9"/>
-        <v>8.3560258571931225</v>
+        <v>7.9365137424788932</v>
       </c>
       <c r="D104">
         <f t="shared" si="10"/>
@@ -3240,14 +3249,14 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
         <v>209</v>
-      </c>
-      <c r="B105" t="s">
-        <v>210</v>
       </c>
       <c r="C105">
         <f t="shared" si="9"/>
-        <v>7.568201724066995</v>
+        <v>8.0934216851622356</v>
       </c>
       <c r="D105">
         <f t="shared" si="10"/>
@@ -3260,34 +3269,34 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
         <v>211</v>
-      </c>
-      <c r="B106" t="s">
-        <v>212</v>
       </c>
       <c r="C106">
         <f t="shared" si="9"/>
-        <v>7.4969296480732153</v>
+        <v>5.1367205671564067</v>
       </c>
       <c r="D106">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
         <v>213</v>
-      </c>
-      <c r="B107" t="s">
-        <v>214</v>
       </c>
       <c r="C107">
         <f t="shared" si="9"/>
-        <v>7.7118072290411908</v>
+        <v>6.4132997640812519</v>
       </c>
       <c r="D107">
         <f t="shared" si="10"/>
@@ -3300,14 +3309,14 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" t="s">
-        <v>216</v>
       </c>
       <c r="C108">
         <f t="shared" si="9"/>
-        <v>7.2479732663618064</v>
+        <v>7.6646419755561253</v>
       </c>
       <c r="D108">
         <f t="shared" si="10"/>
@@ -3320,14 +3329,14 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" t="s">
-        <v>218</v>
       </c>
       <c r="C109">
         <f t="shared" si="9"/>
-        <v>6.173186268412274</v>
+        <v>7.4409090820652173</v>
       </c>
       <c r="D109">
         <f t="shared" si="10"/>
@@ -3340,34 +3349,34 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
         <v>219</v>
-      </c>
-      <c r="B110" t="s">
-        <v>220</v>
       </c>
       <c r="C110">
         <f t="shared" si="9"/>
-        <v>5.4623979978989565</v>
+        <v>7.4727564493172123</v>
       </c>
       <c r="D110">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
         <v>221</v>
-      </c>
-      <c r="B111" t="s">
-        <v>222</v>
       </c>
       <c r="C111">
         <f t="shared" si="9"/>
-        <v>7.5693739096150461</v>
+        <v>6.8597385661971471</v>
       </c>
       <c r="D111">
         <f t="shared" si="10"/>
@@ -3380,14 +3389,14 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
         <v>223</v>
-      </c>
-      <c r="B112" t="s">
-        <v>224</v>
       </c>
       <c r="C112">
         <f t="shared" si="9"/>
-        <v>5.9925535178321354</v>
+        <v>4.7050079593333356</v>
       </c>
       <c r="D112">
         <f t="shared" si="10"/>
@@ -3400,54 +3409,54 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
         <v>225</v>
-      </c>
-      <c r="B113" t="s">
-        <v>226</v>
       </c>
       <c r="C113">
         <f t="shared" si="9"/>
-        <v>5.1583624920952493</v>
+        <v>7.4653828514484184</v>
       </c>
       <c r="D113">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
         <v>227</v>
-      </c>
-      <c r="B114" t="s">
-        <v>228</v>
       </c>
       <c r="C114">
         <f t="shared" si="9"/>
-        <v>7.7566361082458481</v>
+        <v>4.8149131812750738</v>
       </c>
       <c r="D114">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
         <v>229</v>
-      </c>
-      <c r="B115" t="s">
-        <v>230</v>
       </c>
       <c r="C115">
         <f t="shared" si="9"/>
-        <v>6.1335389083702179</v>
+        <v>7.0211892990699383</v>
       </c>
       <c r="D115">
         <f t="shared" si="10"/>
@@ -3460,14 +3469,14 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
         <v>231</v>
-      </c>
-      <c r="B116" t="s">
-        <v>232</v>
       </c>
       <c r="C116">
         <f t="shared" si="9"/>
-        <v>6.9153998352122699</v>
+        <v>7.3031960574204886</v>
       </c>
       <c r="D116">
         <f t="shared" si="10"/>
@@ -3480,34 +3489,34 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C117">
         <f t="shared" si="9"/>
-        <v>5.7371926427047368</v>
+        <v>7.0827853703164498</v>
       </c>
       <c r="D117">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C118">
         <f t="shared" si="9"/>
-        <v>4.8356905714924254</v>
+        <v>5.5976951859255122</v>
       </c>
       <c r="D118">
         <f t="shared" si="10"/>
@@ -3520,94 +3529,94 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C119">
         <f t="shared" si="9"/>
-        <v>5.8704039052790273</v>
+        <v>7.4593924877592306</v>
       </c>
       <c r="D119">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C120">
         <f t="shared" si="9"/>
-        <v>5.7708520116421438</v>
+        <v>6.2013971243204518</v>
       </c>
       <c r="D120">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121">
         <f t="shared" si="9"/>
-        <v>7.3856062735983121</v>
+        <v>5.4857214264815797</v>
       </c>
       <c r="D121">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122">
         <f t="shared" si="9"/>
-        <v>8.4727564493172132</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C123">
         <f t="shared" si="9"/>
-        <v>7.1613680022349753</v>
+        <v>6.1673173347481764</v>
       </c>
       <c r="D123">
         <f t="shared" si="10"/>
@@ -3620,54 +3629,54 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C124">
         <f t="shared" si="9"/>
-        <v>7.2764618041732438</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="D124">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C125">
         <f t="shared" si="9"/>
-        <v>8.6211762817750355</v>
+        <v>5.0374264979406238</v>
       </c>
       <c r="D125">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126">
         <f t="shared" si="9"/>
-        <v>7.4487063199050798</v>
+        <v>6.4927603890268379</v>
       </c>
       <c r="D126">
         <f t="shared" si="10"/>
@@ -3680,14 +3689,14 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C127">
         <f t="shared" si="9"/>
-        <v>4.7143297597452332</v>
+        <v>5.8325089127062366</v>
       </c>
       <c r="D127">
         <f t="shared" si="10"/>
@@ -3700,14 +3709,14 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128">
         <f t="shared" si="9"/>
-        <v>6.3996737214810384</v>
+        <v>6.426511261364575</v>
       </c>
       <c r="D128">
         <f t="shared" si="10"/>
@@ -3720,14 +3729,14 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C129">
         <f t="shared" si="9"/>
-        <v>6.220108088040055</v>
+        <v>6.3820170425748683</v>
       </c>
       <c r="D129">
         <f t="shared" si="10"/>
@@ -3740,14 +3749,14 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C161" si="12">LOG10(B130)</f>
-        <v>5.9921114877869499</v>
+        <v>5.7015679850559273</v>
       </c>
       <c r="D130">
         <f t="shared" ref="D130:D161" si="13">IF(C130&lt;6.05,0,1)</f>
@@ -3756,6 +3765,66 @@
       <c r="E130" t="str">
         <f t="shared" ref="E130:E161" si="14">IF(D130=1,"常見","不常見")</f>
         <v>不常見</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="12"/>
+        <v>6.870988813760575</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="14"/>
+        <v>常見</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="12"/>
+        <v>4.480006942957151</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="14"/>
+        <v>不常見</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
+        <v>193</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="12"/>
+        <v>7.1986570869544222</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="14"/>
+        <v>常見</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/mental_disorder.xlsx
+++ b/vocabulary/mental_disorder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="480">
+  <si>
+    <t>病症</t>
+  </si>
   <si>
     <t>搜尋結果</t>
   </si>
@@ -36,1706 +39,1426 @@
     <t>一般適應綜合症</t>
   </si>
   <si>
-    <t>6,200,000</t>
+    <t>10,000,000</t>
   </si>
   <si>
     <t>二聯性精神病</t>
   </si>
   <si>
-    <t>5,180,000</t>
+    <t>5,420,000</t>
   </si>
   <si>
     <t xml:space="preserve">人為疾患 </t>
   </si>
   <si>
+    <t>1,360,000</t>
+  </si>
+  <si>
+    <t>人格分裂</t>
+  </si>
+  <si>
+    <t>8,590,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人格解體 </t>
+  </si>
+  <si>
+    <t>2,990,000</t>
+  </si>
+  <si>
+    <t>三環類抗抑鬱藥</t>
+  </si>
+  <si>
+    <t>33,900,000</t>
+  </si>
+  <si>
+    <t>女性性功能障礙</t>
+  </si>
+  <si>
+    <t>5,260,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女性性高潮障礙 </t>
+  </si>
+  <si>
+    <t>3,150,000</t>
+  </si>
+  <si>
+    <t>中腦邊緣多巴胺系統</t>
+  </si>
+  <si>
+    <t>147,000</t>
+  </si>
+  <si>
+    <t>中樞神經系統興奮劑</t>
+  </si>
+  <si>
+    <t>1,530,000</t>
+  </si>
+  <si>
+    <t>分裂性人格障礙</t>
+  </si>
+  <si>
+    <t>2,420,000</t>
+  </si>
+  <si>
+    <t>分裂情感性障礙</t>
+  </si>
+  <si>
+    <t>287,000</t>
+  </si>
+  <si>
+    <t>分離焦慮症</t>
+  </si>
+  <si>
+    <t>351,000</t>
+  </si>
+  <si>
+    <t>反社會人格障礙</t>
+  </si>
+  <si>
+    <t>724,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反應性依附疾患 </t>
+  </si>
+  <si>
+    <t>51,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反覆短暫抑鬱 </t>
+  </si>
+  <si>
+    <t>94,700</t>
+  </si>
+  <si>
+    <t>天使人症侯群</t>
+  </si>
+  <si>
+    <t>7,750,000</t>
+  </si>
+  <si>
+    <t>巴比妥酸依賴</t>
+  </si>
+  <si>
+    <t>725,000</t>
+  </si>
+  <si>
+    <t>心因性厭食症</t>
+  </si>
+  <si>
+    <t>1,810,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心境惡劣障礙 </t>
+  </si>
+  <si>
+    <t>55,900</t>
+  </si>
+  <si>
+    <t>心境障礙</t>
+  </si>
+  <si>
+    <t>3,850,000</t>
+  </si>
+  <si>
+    <t>木僵</t>
+  </si>
+  <si>
+    <t>6,580,000</t>
+  </si>
+  <si>
+    <t>牛人併發症</t>
+  </si>
+  <si>
+    <t>249,000</t>
+  </si>
+  <si>
+    <t>代理型孟喬森症候群</t>
+  </si>
+  <si>
+    <t>7,180</t>
+  </si>
+  <si>
+    <t>失眠症</t>
+  </si>
+  <si>
+    <t>33,100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失智症 </t>
+  </si>
+  <si>
+    <t>21,800,000</t>
+  </si>
+  <si>
+    <t>失實症</t>
+  </si>
+  <si>
+    <t>386,000</t>
+  </si>
+  <si>
+    <t>失憶症</t>
+  </si>
+  <si>
+    <t>722,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失讀症 </t>
+  </si>
+  <si>
+    <t>44,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弗雷格利妄想綜合症 </t>
+  </si>
+  <si>
+    <t>357,000</t>
+  </si>
+  <si>
+    <t>未分化型</t>
+  </si>
+  <si>
+    <t>18,300,000</t>
+  </si>
+  <si>
+    <t>未分類型精神病</t>
+  </si>
+  <si>
+    <t>3,440,000</t>
+  </si>
+  <si>
+    <t>多重人格</t>
+  </si>
+  <si>
+    <t>7,130,000</t>
+  </si>
+  <si>
+    <t>妄想</t>
+  </si>
+  <si>
+    <t>145,000,000</t>
+  </si>
+  <si>
+    <t>妄想症</t>
+  </si>
+  <si>
+    <t>30,800,000</t>
+  </si>
+  <si>
+    <t>朱伯特氏症候群</t>
+  </si>
+  <si>
+    <t>自我傷害</t>
+  </si>
+  <si>
+    <t>57,000,000</t>
+  </si>
+  <si>
+    <t>自知力</t>
+  </si>
+  <si>
+    <t>284,000,000</t>
+  </si>
+  <si>
+    <t>自閉症</t>
+  </si>
+  <si>
+    <t>26,200,000</t>
+  </si>
+  <si>
+    <t>自噬</t>
+  </si>
+  <si>
+    <t>10,100,000</t>
+  </si>
+  <si>
+    <t>自戀性人格異常</t>
+  </si>
+  <si>
+    <t>3,210,000</t>
+  </si>
+  <si>
+    <t>血管性痴呆</t>
+  </si>
+  <si>
+    <t>7,980,000</t>
+  </si>
+  <si>
+    <t>亨丁頓舞蹈症</t>
+  </si>
+  <si>
+    <t>71,800</t>
+  </si>
+  <si>
+    <t>低落性情感疾患</t>
+  </si>
+  <si>
+    <t>65,900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">克萊恩萊文症候群 </t>
+  </si>
+  <si>
+    <t>172,000</t>
+  </si>
+  <si>
+    <t>妥瑞症</t>
+  </si>
+  <si>
+    <t>4,530,000</t>
+  </si>
+  <si>
+    <t>抑制劑</t>
+  </si>
+  <si>
+    <t>38,000,000</t>
+  </si>
+  <si>
+    <t>抑鬱性假性痴呆</t>
+  </si>
+  <si>
+    <t>679,000</t>
+  </si>
+  <si>
+    <t>抑鬱症</t>
+  </si>
+  <si>
+    <t>5,090,000</t>
+  </si>
+  <si>
+    <t>男性性高潮障礙</t>
+  </si>
+  <si>
+    <t>3,040,000</t>
+  </si>
+  <si>
+    <t>男性勃起障礙</t>
+  </si>
+  <si>
+    <t>5,520,000</t>
+  </si>
+  <si>
+    <t>言語表達障礙</t>
+  </si>
+  <si>
+    <t>3,160,000</t>
+  </si>
+  <si>
+    <t>亞斯伯格症候群</t>
+  </si>
+  <si>
+    <t>301,000</t>
+  </si>
+  <si>
+    <t>依賴型人格違常</t>
+  </si>
+  <si>
+    <t>470,000</t>
+  </si>
+  <si>
+    <t>兒童心理疾患</t>
+  </si>
+  <si>
+    <t>夜間進食症侯群</t>
+  </si>
+  <si>
+    <t>76,100</t>
+  </si>
+  <si>
+    <t>孟喬森症候群</t>
+  </si>
+  <si>
+    <t>15,200</t>
+  </si>
+  <si>
+    <t>季節性情緒失調</t>
+  </si>
+  <si>
+    <t>1,220,000</t>
+  </si>
+  <si>
+    <t>性別焦慮</t>
+  </si>
+  <si>
+    <t>7,990,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性受虐失調 </t>
+  </si>
+  <si>
+    <t>433,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性施虐症 </t>
+  </si>
+  <si>
+    <t>3,910,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性高潮障礙 </t>
+  </si>
+  <si>
+    <t>6,700,000</t>
+  </si>
+  <si>
+    <t>性慾倒錯</t>
+  </si>
+  <si>
+    <t>1,520,000</t>
+  </si>
+  <si>
+    <t>性慾減退</t>
+  </si>
+  <si>
+    <t>215,000</t>
+  </si>
+  <si>
+    <t>性癔病</t>
+  </si>
+  <si>
+    <t>864,000</t>
+  </si>
+  <si>
+    <t>抽動障礙</t>
+  </si>
+  <si>
+    <t>2,180,000</t>
+  </si>
+  <si>
+    <t>拔毛癖</t>
+  </si>
+  <si>
+    <t>81,100,000</t>
+  </si>
+  <si>
+    <t>注意力不足</t>
+  </si>
+  <si>
+    <t>174,000,000</t>
+  </si>
+  <si>
+    <t>注意力不足過動症</t>
+  </si>
+  <si>
+    <t>3,390,000</t>
+  </si>
+  <si>
+    <t>過動症</t>
+  </si>
+  <si>
+    <t>62,500,000</t>
+  </si>
+  <si>
+    <t>社交恐懼症</t>
+  </si>
+  <si>
+    <t>31,700,000</t>
+  </si>
+  <si>
+    <t>表演型人格障礙</t>
+  </si>
+  <si>
+    <t>257,000</t>
+  </si>
+  <si>
+    <t>阿茲海默</t>
+  </si>
+  <si>
+    <t>3,260,000</t>
+  </si>
+  <si>
+    <t>阿茲海默症</t>
+  </si>
+  <si>
+    <t>阿爾茨海默病</t>
+  </si>
+  <si>
+    <t>8,770,000</t>
+  </si>
+  <si>
+    <t>非語文學習障礙</t>
+  </si>
+  <si>
+    <t>475,000</t>
+  </si>
+  <si>
+    <t>品行障礙</t>
+  </si>
+  <si>
+    <t>思覺失調症</t>
+  </si>
+  <si>
+    <t>1,600,000</t>
+  </si>
+  <si>
+    <t>急性腦病綜合徵</t>
+  </si>
+  <si>
+    <t>861,000</t>
+  </si>
+  <si>
+    <t>急性壓力疾患</t>
+  </si>
+  <si>
+    <t>601,000</t>
+  </si>
+  <si>
+    <t>急性應激障礙</t>
+  </si>
+  <si>
+    <t>2,300,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施虐癖 </t>
+  </si>
+  <si>
+    <t>23,800</t>
+  </si>
+  <si>
+    <t>柯薩可夫綜合</t>
+  </si>
+  <si>
+    <t>11,600,000</t>
+  </si>
+  <si>
+    <t>氟哌啶醇</t>
+  </si>
+  <si>
+    <t>595,000</t>
+  </si>
+  <si>
+    <t>科爾薩科夫氏症候群</t>
+  </si>
+  <si>
+    <t>330,000</t>
+  </si>
+  <si>
+    <t>致幻劑</t>
+  </si>
+  <si>
+    <t>11,800,000</t>
+  </si>
+  <si>
+    <t>苯二氮䓬類藥物成癮</t>
+  </si>
+  <si>
+    <t>166,000</t>
+  </si>
+  <si>
+    <t>苯二氮䓬類藥物戒斷症候群</t>
+  </si>
+  <si>
+    <t>2,640</t>
+  </si>
+  <si>
+    <t>苯丙胺依賴</t>
+  </si>
+  <si>
+    <t>185,000</t>
+  </si>
+  <si>
+    <t>重性精神病</t>
+  </si>
+  <si>
+    <t>24,600,000</t>
+  </si>
+  <si>
+    <t>剛塞綜合徵</t>
+  </si>
+  <si>
+    <t>21,700,000</t>
+  </si>
+  <si>
+    <t>原發性失眠</t>
+  </si>
+  <si>
+    <t>2,940,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐氏綜合症 </t>
+  </si>
+  <si>
+    <t>604,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恐音症 </t>
+  </si>
+  <si>
+    <t>89,300,000</t>
+  </si>
+  <si>
+    <t>恐慌症</t>
+  </si>
+  <si>
+    <t>56,600,000</t>
+  </si>
+  <si>
+    <t>恐懼症</t>
+  </si>
+  <si>
+    <t>7,250,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">書寫表達障礙 </t>
+  </si>
+  <si>
+    <t>2,920,000</t>
+  </si>
+  <si>
+    <t>特殊性發育障礙</t>
+  </si>
+  <si>
+    <t>7,610,000</t>
+  </si>
+  <si>
+    <t>特殊恐懼症</t>
+  </si>
+  <si>
+    <t>39,800,000</t>
+  </si>
+  <si>
+    <t>疼痛障礙</t>
+  </si>
+  <si>
+    <t>18,400,000</t>
+  </si>
+  <si>
+    <t>病理性象徵性思維</t>
+  </si>
+  <si>
+    <t>197,000</t>
+  </si>
+  <si>
+    <t>病理性贅述</t>
+  </si>
+  <si>
+    <t>88,000</t>
+  </si>
+  <si>
+    <t>病覺缺失症</t>
+  </si>
+  <si>
+    <t>1,330,000</t>
+  </si>
+  <si>
+    <t>破壞行為疾病</t>
+  </si>
+  <si>
+    <t>30,400,000</t>
+  </si>
+  <si>
+    <t>神經原纖維纏結</t>
+  </si>
+  <si>
+    <t>585,000</t>
+  </si>
+  <si>
+    <t>神經衰弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神經發展疾患 </t>
+  </si>
+  <si>
+    <t>988,000</t>
+  </si>
+  <si>
+    <t>神經過敏症</t>
+  </si>
+  <si>
+    <t>17,700,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迷幻劑持續感知障礙 </t>
+  </si>
+  <si>
+    <t>138,000</t>
+  </si>
+  <si>
+    <t>逃避性人格障礙</t>
+  </si>
+  <si>
+    <t>1,460,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆行性失憶症 </t>
+  </si>
+  <si>
+    <t>29,100,000</t>
+  </si>
+  <si>
+    <t>酒精戒斷症候群</t>
+  </si>
+  <si>
+    <t>46,000</t>
+  </si>
+  <si>
+    <t>酒精和藥物依賴</t>
+  </si>
+  <si>
+    <t>2,210,000</t>
+  </si>
+  <si>
+    <t>酒精性幻覺症</t>
+  </si>
+  <si>
+    <t>740,000</t>
+  </si>
+  <si>
+    <t>酒精性妄想症</t>
+  </si>
+  <si>
+    <t>726,000</t>
+  </si>
+  <si>
+    <t>酒精誘發精神障礙</t>
+  </si>
+  <si>
+    <t>617,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高功能自閉症 </t>
+  </si>
+  <si>
+    <t>1,470,000</t>
+  </si>
+  <si>
+    <t>假性痴呆</t>
+  </si>
+  <si>
+    <t>4,800,000</t>
+  </si>
+  <si>
+    <t>偏執型</t>
+  </si>
+  <si>
+    <t>6,240,000</t>
+  </si>
+  <si>
+    <t>偏執型人格障礙</t>
+  </si>
+  <si>
+    <t>667,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">健康食品痴迷症 </t>
+  </si>
+  <si>
+    <t>462,000</t>
+  </si>
+  <si>
+    <t>強制性覓藥行為</t>
+  </si>
+  <si>
+    <t>1,700,000</t>
+  </si>
+  <si>
+    <t>強迫型人格障礙</t>
+  </si>
+  <si>
+    <t>強迫症</t>
+  </si>
+  <si>
+    <t>9,940,000</t>
+  </si>
+  <si>
+    <t>強迫障礙</t>
+  </si>
+  <si>
+    <t>18,500,000</t>
+  </si>
+  <si>
+    <t>強迫觀念</t>
+  </si>
+  <si>
+    <t>9,790,000</t>
+  </si>
+  <si>
+    <t>情感性精神病</t>
+  </si>
+  <si>
+    <t>6,210,000</t>
+  </si>
+  <si>
+    <t>情感性障礙</t>
+  </si>
+  <si>
+    <t>32,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情感障礙 </t>
+  </si>
+  <si>
+    <t>38,700,000</t>
+  </si>
+  <si>
+    <t>情緒高漲</t>
+  </si>
+  <si>
+    <t>1,040,000</t>
+  </si>
+  <si>
+    <t>情緒障礙</t>
+  </si>
+  <si>
+    <t>34,100,000</t>
+  </si>
+  <si>
+    <t>晝夜節律性睡眠障礙</t>
+  </si>
+  <si>
+    <t>178,000</t>
+  </si>
+  <si>
+    <t>混合情感狀態</t>
+  </si>
+  <si>
+    <t>9,460,000</t>
+  </si>
+  <si>
+    <t>猝睡症</t>
+  </si>
+  <si>
+    <t>533,000</t>
+  </si>
+  <si>
+    <t>產後抑鬱症</t>
+  </si>
+  <si>
+    <t>303,000</t>
+  </si>
+  <si>
+    <t>產後憂鬱症</t>
+  </si>
+  <si>
+    <t>655,000</t>
+  </si>
+  <si>
+    <t>異食癖</t>
+  </si>
+  <si>
+    <t>112,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異睡症 </t>
+  </si>
+  <si>
+    <t>37,900,000</t>
+  </si>
+  <si>
+    <t>第一型雙極情感障礙單次躁症發作</t>
+  </si>
+  <si>
+    <t>227,000</t>
+  </si>
+  <si>
+    <t>莫吉隆斯症</t>
+  </si>
+  <si>
+    <t>194,000</t>
+  </si>
+  <si>
+    <t>被愛妄想症</t>
+  </si>
+  <si>
+    <t>5,690,000</t>
+  </si>
+  <si>
+    <t>酗酒和藥物濫用</t>
+  </si>
+  <si>
+    <t>358,000</t>
+  </si>
+  <si>
+    <t>創傷後壓力心理障礙症</t>
+  </si>
+  <si>
+    <t>225,000</t>
+  </si>
+  <si>
+    <t>創傷後壓力症候群</t>
+  </si>
+  <si>
+    <t>323,000</t>
+  </si>
+  <si>
+    <t>創傷後應激障礙</t>
+  </si>
+  <si>
+    <t>2,540,000</t>
+  </si>
+  <si>
+    <t>單純型</t>
+  </si>
+  <si>
+    <t>60,600,000</t>
+  </si>
+  <si>
+    <t>單胺氧化酶抑制劑</t>
+  </si>
+  <si>
+    <t>188,000</t>
+  </si>
+  <si>
+    <t>喹硫平</t>
+  </si>
+  <si>
+    <t>451,000</t>
+  </si>
+  <si>
+    <t>循環性精神病</t>
+  </si>
+  <si>
+    <t>5,470,000</t>
+  </si>
+  <si>
+    <t>揮發性溶劑</t>
+  </si>
+  <si>
+    <t>斯德哥爾摩症候群</t>
+  </si>
+  <si>
+    <t>74,000</t>
+  </si>
+  <si>
+    <t>智能不足</t>
+  </si>
+  <si>
+    <t>107,000,000</t>
+  </si>
+  <si>
+    <t>殘留型</t>
+  </si>
+  <si>
+    <t>33,700,000</t>
+  </si>
+  <si>
+    <t>氯丙嗪</t>
+  </si>
+  <si>
+    <t>2,060,000</t>
+  </si>
+  <si>
+    <t>氯氮平</t>
+  </si>
+  <si>
+    <t>2,700,000</t>
+  </si>
+  <si>
+    <t>渴求狀態</t>
+  </si>
+  <si>
+    <t>3,990,000</t>
+  </si>
+  <si>
+    <t>焦慮症</t>
+  </si>
+  <si>
+    <t>8,110,000</t>
+  </si>
+  <si>
+    <t>童樣痴呆</t>
+  </si>
+  <si>
+    <t>1,790,000</t>
+  </si>
+  <si>
+    <t>間歇性爆發性障礙</t>
+  </si>
+  <si>
+    <t>37,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">間隙性遺忘 </t>
+  </si>
+  <si>
+    <t>477,000</t>
+  </si>
+  <si>
+    <t>順行性遺忘症</t>
+  </si>
+  <si>
+    <t>2,010,000</t>
+  </si>
+  <si>
+    <t>飲食失調症</t>
+  </si>
+  <si>
+    <t>10,800,000</t>
+  </si>
+  <si>
+    <t>嗜睡症</t>
+  </si>
+  <si>
+    <t>5,490,000</t>
+  </si>
+  <si>
+    <t>奧氮平</t>
+  </si>
+  <si>
+    <t>2,740,000</t>
+  </si>
+  <si>
+    <t>痴呆</t>
+  </si>
+  <si>
+    <t>27,300,000</t>
+  </si>
+  <si>
+    <t>解離性失憶症</t>
+  </si>
+  <si>
+    <t>10,500</t>
+  </si>
+  <si>
+    <t>解離性障礙</t>
+  </si>
+  <si>
+    <t>92,600</t>
+  </si>
+  <si>
+    <t>解離症</t>
+  </si>
+  <si>
+    <t>違拗症</t>
+  </si>
+  <si>
+    <t>48,100</t>
+  </si>
+  <si>
+    <t>電休克</t>
+  </si>
+  <si>
+    <t>3,520,000</t>
+  </si>
+  <si>
+    <t>電玩成癮症</t>
+  </si>
+  <si>
+    <t>520,000</t>
+  </si>
+  <si>
+    <t>夢遊症</t>
+  </si>
+  <si>
+    <t>4,490,000</t>
+  </si>
+  <si>
+    <t>夢囈性精神病</t>
+  </si>
+  <si>
+    <t>33,100</t>
+  </si>
+  <si>
+    <t>夢魘症</t>
+  </si>
+  <si>
+    <t>2,660,000</t>
+  </si>
+  <si>
+    <t>對立反抗性疾患</t>
+  </si>
+  <si>
+    <t>9,460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">對立反抗症 </t>
+  </si>
+  <si>
+    <t>102,000</t>
+  </si>
+  <si>
+    <t>慢性抽動障礙</t>
+  </si>
+  <si>
+    <t>886,000</t>
+  </si>
+  <si>
+    <t>慢性腦綜合徵</t>
+  </si>
+  <si>
+    <t>8,230,000</t>
+  </si>
+  <si>
+    <t>疑病妄想</t>
+  </si>
+  <si>
+    <t>疑病症</t>
+  </si>
+  <si>
+    <t>2,560,000</t>
+  </si>
+  <si>
+    <t>睡眠障礙</t>
+  </si>
+  <si>
+    <t>19,000,000</t>
+  </si>
+  <si>
+    <t>精神分裂症</t>
+  </si>
+  <si>
+    <t>13,700,000</t>
+  </si>
+  <si>
+    <t>精神分裂症後抑鬱</t>
+  </si>
+  <si>
+    <t>5,910,000</t>
+  </si>
+  <si>
+    <t>精神失常</t>
+  </si>
+  <si>
+    <t>8,720,000</t>
+  </si>
+  <si>
+    <t>精神官能症</t>
+  </si>
+  <si>
+    <t>精神活性物質</t>
+  </si>
+  <si>
+    <t>9,760,000</t>
+  </si>
+  <si>
+    <t>精神病學</t>
+  </si>
+  <si>
+    <t>25,700,000</t>
+  </si>
+  <si>
+    <t>精神發育遲滯</t>
+  </si>
+  <si>
+    <t>541,000</t>
+  </si>
+  <si>
+    <t>精神障礙</t>
+  </si>
+  <si>
+    <t>68,900,000</t>
+  </si>
+  <si>
+    <t>精神興奮劑</t>
+  </si>
+  <si>
+    <t>8,220,000</t>
+  </si>
+  <si>
+    <t>維思通</t>
+  </si>
+  <si>
+    <t>96,700,000</t>
+  </si>
+  <si>
+    <t>裸露癖</t>
+  </si>
+  <si>
+    <t>4,060,000</t>
+  </si>
+  <si>
+    <t>語詞新作</t>
+  </si>
+  <si>
+    <t>132,000</t>
+  </si>
+  <si>
+    <t>輕度狂躁</t>
+  </si>
+  <si>
+    <t>24,000,000</t>
+  </si>
+  <si>
+    <t>廣泛性焦慮症</t>
+  </si>
+  <si>
+    <t>389,000</t>
+  </si>
+  <si>
+    <t>廣泛性焦慮障礙</t>
+  </si>
+  <si>
+    <t>3,940,000</t>
+  </si>
+  <si>
+    <t>廣泛性發展障礙</t>
+  </si>
+  <si>
+    <t>2,770,000</t>
+  </si>
+  <si>
+    <t>廣場恐懼症</t>
+  </si>
+  <si>
+    <t>85,500,000</t>
+  </si>
+  <si>
+    <t>憂鬱</t>
+  </si>
+  <si>
+    <t>46,400,000</t>
+  </si>
+  <si>
+    <t>憂鬱症</t>
+  </si>
+  <si>
+    <t>24,500,000</t>
+  </si>
+  <si>
+    <t>摩擦癖</t>
+  </si>
+  <si>
+    <t>6,270,000</t>
+  </si>
+  <si>
+    <t>數學障礙</t>
+  </si>
+  <si>
+    <t>32,200,000</t>
+  </si>
+  <si>
+    <t>暴食症</t>
+  </si>
+  <si>
+    <t>5,600,000</t>
+  </si>
+  <si>
+    <t>模仿言語</t>
+  </si>
+  <si>
+    <t>2,900,000</t>
+  </si>
+  <si>
+    <t>衝動控制失調</t>
+  </si>
+  <si>
+    <t>653,000</t>
+  </si>
+  <si>
+    <t>適應障礙</t>
+  </si>
+  <si>
+    <t>22,800,000</t>
+  </si>
+  <si>
+    <t>鋰鹽</t>
+  </si>
+  <si>
+    <t>7,110,000</t>
+  </si>
+  <si>
+    <t>震顫性譫妄</t>
+  </si>
+  <si>
+    <t>107,000</t>
+  </si>
+  <si>
+    <t>器質性及物質引發的精神疾病</t>
+  </si>
+  <si>
+    <t>48,500</t>
+  </si>
+  <si>
+    <t>學習障礙</t>
+  </si>
+  <si>
+    <t>21,900,000</t>
+  </si>
+  <si>
+    <t>興奮劑</t>
+  </si>
+  <si>
+    <t>26,500,000</t>
+  </si>
+  <si>
+    <t>選擇性5-HT再攝取抑制劑</t>
+  </si>
+  <si>
+    <t>63,200</t>
+  </si>
+  <si>
+    <t>遺忘綜合</t>
+  </si>
+  <si>
+    <t>10,400,000</t>
+  </si>
+  <si>
+    <t>縱火狂</t>
+  </si>
+  <si>
+    <t>4,010,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蕾特氏症 </t>
+  </si>
+  <si>
+    <t>3,980,000</t>
+  </si>
+  <si>
+    <t>鍾情妄想</t>
+  </si>
+  <si>
+    <t>504,000</t>
+  </si>
+  <si>
+    <t>顆粒空泡變性</t>
+  </si>
+  <si>
+    <t>42,200,000</t>
+  </si>
+  <si>
+    <t>癔症</t>
+  </si>
+  <si>
+    <t>1,630,000</t>
+  </si>
+  <si>
+    <t>癔症球</t>
+  </si>
+  <si>
+    <t>藏書癖</t>
+  </si>
+  <si>
+    <t>332,000</t>
+  </si>
+  <si>
+    <t>軀體形式障礙</t>
+  </si>
+  <si>
+    <t>1,090,000</t>
+  </si>
+  <si>
+    <t>軀體依賴</t>
+  </si>
+  <si>
+    <t>1,310,000</t>
+  </si>
+  <si>
+    <t>軀體變形障礙</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>轉化症</t>
+  </si>
+  <si>
+    <t>30,200,000</t>
+  </si>
+  <si>
+    <t>雙極性情感精神病</t>
+  </si>
+  <si>
+    <t>14,700</t>
+  </si>
+  <si>
+    <t>邊緣性人格疾患</t>
+  </si>
+  <si>
+    <t>106,000</t>
+  </si>
+  <si>
+    <t>邊緣性人格障礙</t>
+  </si>
+  <si>
+    <t>類精神分裂人格異常</t>
+  </si>
+  <si>
     <t>1,020,000</t>
   </si>
   <si>
-    <t>人格分裂</t>
-  </si>
-  <si>
-    <t>10,400,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人格解體 </t>
-  </si>
-  <si>
-    <t>4,840,000</t>
-  </si>
-  <si>
-    <t>三環類抗抑鬱藥</t>
-  </si>
-  <si>
-    <t>6,390,000</t>
-  </si>
-  <si>
-    <t>口吃</t>
-  </si>
-  <si>
-    <t>10,200,000</t>
-  </si>
-  <si>
-    <t>大麻</t>
-  </si>
-  <si>
-    <t>41,900,000</t>
-  </si>
-  <si>
-    <t>女性性功能障礙</t>
-  </si>
-  <si>
-    <t>5,240,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女性性高潮障礙 </t>
-  </si>
-  <si>
-    <t>2,950,000</t>
-  </si>
-  <si>
-    <t>中腦邊緣多巴胺系統</t>
-  </si>
-  <si>
-    <t>153,000</t>
-  </si>
-  <si>
-    <t>中樞神經系統興奮劑</t>
-  </si>
-  <si>
-    <t>1,420,000</t>
-  </si>
-  <si>
-    <t>分裂性人格障礙</t>
-  </si>
-  <si>
-    <t>2,180,000</t>
-  </si>
-  <si>
-    <t>分裂情感性障礙</t>
-  </si>
-  <si>
-    <t>268,000</t>
-  </si>
-  <si>
-    <t>分離焦慮症</t>
-  </si>
-  <si>
-    <t>338,000</t>
-  </si>
-  <si>
-    <t>反社會人格障礙</t>
-  </si>
-  <si>
-    <t>699,000</t>
-  </si>
-  <si>
-    <t>反芻綜合症</t>
-  </si>
-  <si>
-    <t>178,000</t>
-  </si>
-  <si>
-    <t>反跳</t>
-  </si>
-  <si>
-    <t>291,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">反應性依附疾患 </t>
-  </si>
-  <si>
-    <t>48,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">反覆短暫抑鬱 </t>
-  </si>
-  <si>
-    <t>102,000</t>
-  </si>
-  <si>
-    <t>天使人症侯群</t>
-  </si>
-  <si>
-    <t>6,650,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巴比妥酸依賴 </t>
-  </si>
-  <si>
-    <t>504,000</t>
-  </si>
-  <si>
-    <t>幻覺</t>
-  </si>
-  <si>
-    <t>17,700,000</t>
-  </si>
-  <si>
-    <t>心因性厭食症</t>
-  </si>
-  <si>
-    <t>1,440,000</t>
-  </si>
-  <si>
-    <t>心理依賴</t>
-  </si>
-  <si>
-    <t>5,110,000</t>
-  </si>
-  <si>
-    <t>心境</t>
-  </si>
-  <si>
-    <t>62,600,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心境惡劣障礙 </t>
-  </si>
-  <si>
-    <t>49,300</t>
-  </si>
-  <si>
-    <t>心境障礙</t>
-  </si>
-  <si>
-    <t>3,520,000</t>
-  </si>
-  <si>
-    <t>木僵</t>
-  </si>
-  <si>
-    <t>7,740,000</t>
-  </si>
-  <si>
-    <t>牛人併發症</t>
-  </si>
-  <si>
-    <t>195,000</t>
-  </si>
-  <si>
-    <t>代理型孟喬森症候群</t>
-  </si>
-  <si>
-    <t>7,320</t>
-  </si>
-  <si>
-    <t>失眠症</t>
-  </si>
-  <si>
-    <t>35,900,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失智症 </t>
-  </si>
-  <si>
-    <t>19,500,000</t>
-  </si>
-  <si>
-    <t>失實症</t>
-  </si>
-  <si>
-    <t>406,000</t>
-  </si>
-  <si>
-    <t>失憶症</t>
-  </si>
-  <si>
-    <t>626,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失讀症 </t>
-  </si>
-  <si>
-    <t>18,700,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弗雷格利妄想綜合症 </t>
-  </si>
-  <si>
-    <t>319,000</t>
-  </si>
-  <si>
-    <t>未分化型</t>
-  </si>
-  <si>
-    <t>13,900,000</t>
-  </si>
-  <si>
-    <t>未分類型精神病</t>
-  </si>
-  <si>
-    <t>2,790,000</t>
-  </si>
-  <si>
-    <t>全身電流傳導般的快感</t>
-  </si>
-  <si>
-    <t>62,200</t>
-  </si>
-  <si>
-    <t>多重人格</t>
-  </si>
-  <si>
-    <t>8,010,000</t>
-  </si>
-  <si>
-    <t>妄想</t>
-  </si>
-  <si>
-    <t>132,000,000</t>
-  </si>
-  <si>
-    <t>妄想症</t>
-  </si>
-  <si>
-    <t>29,500,000</t>
-  </si>
-  <si>
-    <t>早洩</t>
-  </si>
-  <si>
-    <t>8,200,000</t>
-  </si>
-  <si>
-    <t>有害使用</t>
-  </si>
-  <si>
-    <t>158,000,000</t>
-  </si>
-  <si>
-    <t>朱伯特氏症候群</t>
-  </si>
-  <si>
-    <t>252,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自大狂 </t>
-  </si>
-  <si>
-    <t>422,000,000</t>
-  </si>
-  <si>
-    <t>自我傷害</t>
-  </si>
-  <si>
-    <t>39,800,000</t>
-  </si>
-  <si>
-    <t>自知力</t>
-  </si>
-  <si>
-    <t>377,000,000</t>
-  </si>
-  <si>
-    <t>自閉症</t>
-  </si>
-  <si>
-    <t>29,300,000</t>
-  </si>
-  <si>
-    <t>自噬</t>
-  </si>
-  <si>
-    <t>14,100,000</t>
-  </si>
-  <si>
-    <t>自戀性人格異常</t>
-  </si>
-  <si>
-    <t>3,340,000</t>
-  </si>
-  <si>
-    <t>血管性痴呆</t>
-  </si>
-  <si>
-    <t>7,650,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亨丁頓舞蹈症 </t>
-  </si>
-  <si>
-    <t>63,500</t>
-  </si>
-  <si>
-    <t>低落性情感疾患</t>
-  </si>
-  <si>
-    <t>68,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">克萊恩萊文症候群 </t>
-  </si>
-  <si>
-    <t>130,000</t>
-  </si>
-  <si>
-    <t>妥瑞症</t>
-  </si>
-  <si>
-    <t>3,490,000</t>
-  </si>
-  <si>
-    <t>戒斷狀態</t>
-  </si>
-  <si>
-    <t>8,340,000</t>
-  </si>
-  <si>
-    <t>抑制劑</t>
-  </si>
-  <si>
-    <t>37,500,000</t>
-  </si>
-  <si>
-    <t>抑鬱性假性痴呆</t>
-  </si>
-  <si>
-    <t>695,000</t>
-  </si>
-  <si>
-    <t>抑鬱症</t>
-  </si>
-  <si>
-    <t>4,890,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">男性性高潮障礙 </t>
-  </si>
-  <si>
-    <t>3,000,000</t>
-  </si>
-  <si>
-    <t>男性勃起障礙</t>
-  </si>
-  <si>
-    <t>8,280,000</t>
-  </si>
-  <si>
-    <t>言語表達障礙</t>
-  </si>
-  <si>
-    <t>2,850,000</t>
-  </si>
-  <si>
-    <t>亞斯伯格症候群</t>
-  </si>
-  <si>
-    <t>201,000</t>
-  </si>
-  <si>
-    <t>依賴</t>
-  </si>
-  <si>
-    <t>16,500,000</t>
-  </si>
-  <si>
-    <t>依賴型人格違常</t>
-  </si>
-  <si>
-    <t>305,000</t>
-  </si>
-  <si>
-    <t>兒童心理疾患</t>
-  </si>
-  <si>
-    <t>2,800,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">夜間進食症侯群 </t>
-  </si>
-  <si>
-    <t>73,700</t>
-  </si>
-  <si>
-    <t>夜驚</t>
-  </si>
-  <si>
-    <t>269,000,000</t>
-  </si>
-  <si>
-    <t>孟喬森症候群</t>
-  </si>
-  <si>
-    <t>14,200</t>
-  </si>
-  <si>
-    <t>季節性情緒失調</t>
-  </si>
-  <si>
-    <t>1,250,000</t>
-  </si>
-  <si>
-    <t>定向力</t>
-  </si>
-  <si>
-    <t>26,100,000</t>
-  </si>
-  <si>
-    <t>性別焦慮</t>
-  </si>
-  <si>
-    <t>5,660,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性受虐失調 </t>
-  </si>
-  <si>
-    <t>490,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性施虐症 </t>
-  </si>
-  <si>
-    <t>3,950,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性高潮障礙 </t>
-  </si>
-  <si>
-    <t>6,270,000</t>
-  </si>
-  <si>
-    <t>性慾倒錯</t>
-  </si>
-  <si>
-    <t>2,380,000</t>
-  </si>
-  <si>
-    <t>性慾減退</t>
-  </si>
-  <si>
-    <t>206,000</t>
-  </si>
-  <si>
-    <t>性癔病</t>
-  </si>
-  <si>
-    <t>784,000</t>
-  </si>
-  <si>
-    <t>抽動障礙</t>
-  </si>
-  <si>
-    <t>2,020,000</t>
-  </si>
-  <si>
-    <t>拔毛癖</t>
-  </si>
-  <si>
-    <t>43,800,000</t>
-  </si>
-  <si>
-    <t>注意力不足過動症</t>
-  </si>
-  <si>
-    <t>3,650,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物質成癮 </t>
-  </si>
-  <si>
-    <t>973,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物質使用疾患 </t>
-  </si>
-  <si>
-    <t>12,100,000</t>
-  </si>
-  <si>
-    <t>物質或成癮物質</t>
-  </si>
-  <si>
-    <t>5,100,000</t>
-  </si>
-  <si>
-    <t>社交恐懼症</t>
+    <t>嚴重憂鬱症</t>
+  </si>
+  <si>
+    <t>3,030,000</t>
+  </si>
+  <si>
+    <t>譫妄</t>
+  </si>
+  <si>
+    <t>774,000</t>
+  </si>
+  <si>
+    <t>躁狂症</t>
+  </si>
+  <si>
+    <t>躁鬱</t>
+  </si>
+  <si>
+    <t>2,930,000</t>
+  </si>
+  <si>
+    <t>躁鬱症</t>
+  </si>
+  <si>
+    <t>1,580,000</t>
+  </si>
+  <si>
+    <t>懼高症</t>
+  </si>
+  <si>
+    <t>7,550,000</t>
+  </si>
+  <si>
+    <t>聽幻覺</t>
   </si>
   <si>
     <t>9,750,000</t>
   </si>
   <si>
-    <t>表演型人格障礙</t>
-  </si>
-  <si>
-    <t>300,000</t>
-  </si>
-  <si>
-    <t>阿片類</t>
-  </si>
-  <si>
-    <t>1,790,000</t>
-  </si>
-  <si>
-    <t>阿茲海默</t>
-  </si>
-  <si>
-    <t>3,040,000</t>
-  </si>
-  <si>
-    <t>阿茲海默症</t>
-  </si>
-  <si>
-    <t>1,450,000</t>
-  </si>
-  <si>
-    <t>阿爾茨海默病</t>
-  </si>
-  <si>
-    <t>8,090,000</t>
-  </si>
-  <si>
-    <t>青春型</t>
-  </si>
-  <si>
-    <t>164,000,000</t>
-  </si>
-  <si>
-    <t>非語文學習障礙</t>
-  </si>
-  <si>
-    <t>495,000</t>
-  </si>
-  <si>
-    <t>品行障礙</t>
-  </si>
-  <si>
-    <t>1,930,000</t>
-  </si>
-  <si>
-    <t>思維中斷</t>
-  </si>
-  <si>
-    <t>9,000,000</t>
-  </si>
-  <si>
-    <t>思維奔逸</t>
-  </si>
-  <si>
-    <t>61,900</t>
-  </si>
-  <si>
-    <t>思維破裂</t>
-  </si>
-  <si>
-    <t>5,170,000</t>
-  </si>
-  <si>
-    <t>思維被洞悉</t>
-  </si>
-  <si>
-    <t>1,340,000</t>
-  </si>
-  <si>
-    <t>思維貧乏</t>
-  </si>
-  <si>
-    <t>915,000</t>
-  </si>
-  <si>
-    <t>思維插入</t>
-  </si>
-  <si>
-    <t>11,500,000</t>
-  </si>
-  <si>
-    <t>思維散漫</t>
-  </si>
-  <si>
-    <t>793,000</t>
-  </si>
-  <si>
-    <t>思維遲緩</t>
-  </si>
-  <si>
-    <t>1,700,000</t>
-  </si>
-  <si>
-    <t>思維擴散</t>
-  </si>
-  <si>
-    <t>6,230,000</t>
-  </si>
-  <si>
-    <t>思覺失調症</t>
-  </si>
-  <si>
-    <t>1,840,000</t>
-  </si>
-  <si>
-    <t>急性腦病綜合徵</t>
-  </si>
-  <si>
-    <t>868,000</t>
-  </si>
-  <si>
-    <t>急性壓力疾患</t>
-  </si>
-  <si>
-    <t>540,000</t>
-  </si>
-  <si>
-    <t>急性應激障礙</t>
-  </si>
-  <si>
-    <t>1,850,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">施虐癖 </t>
-  </si>
-  <si>
-    <t>26,300</t>
-  </si>
-  <si>
-    <t>柯薩可夫綜合</t>
-  </si>
-  <si>
-    <t>7,250,000</t>
-  </si>
-  <si>
-    <t>氟哌啶醇</t>
-  </si>
-  <si>
-    <t>562,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科爾薩科夫氏症候群 </t>
-  </si>
-  <si>
-    <t>330,000</t>
-  </si>
-  <si>
-    <t>耐受性</t>
-  </si>
-  <si>
-    <t>92,900,000</t>
-  </si>
-  <si>
-    <t>致幻劑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苯二氮䓬類藥物成癮 </t>
-  </si>
-  <si>
-    <t>176,000</t>
-  </si>
-  <si>
-    <t>苯二氮䓬類藥物戒斷症候群</t>
-  </si>
-  <si>
-    <t>2,660</t>
-  </si>
-  <si>
-    <t>苯丙胺依賴</t>
-  </si>
-  <si>
-    <t>160,000</t>
-  </si>
-  <si>
-    <t>重性精神病</t>
-  </si>
-  <si>
-    <t>22,100,000</t>
-  </si>
-  <si>
-    <t>剛塞綜合徵</t>
-  </si>
-  <si>
-    <t>11,200,000</t>
-  </si>
-  <si>
-    <t>原發性失眠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">唐氏綜合症 </t>
-  </si>
-  <si>
-    <t>581,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">恐音症 </t>
-  </si>
-  <si>
-    <t>37,200,000</t>
-  </si>
-  <si>
-    <t>恐慌症</t>
-  </si>
-  <si>
-    <t>42,200,000</t>
-  </si>
-  <si>
-    <t>恐懼症</t>
-  </si>
-  <si>
-    <t>6,860,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書寫表達障礙 </t>
-  </si>
-  <si>
-    <t>2,660,000</t>
-  </si>
-  <si>
-    <t>特殊性發育障礙</t>
-  </si>
-  <si>
-    <t>6,160,000</t>
-  </si>
-  <si>
-    <t>特殊恐懼症</t>
-  </si>
-  <si>
-    <t>14,000,000</t>
-  </si>
-  <si>
-    <t>疼痛障礙</t>
-  </si>
-  <si>
-    <t>19,900,000</t>
-  </si>
-  <si>
-    <t>病理性象徵性思維</t>
-  </si>
-  <si>
-    <t>146,000</t>
-  </si>
-  <si>
-    <t>病理性贅述</t>
-  </si>
-  <si>
-    <t>79,000</t>
-  </si>
-  <si>
-    <t>病態賭博</t>
-  </si>
-  <si>
-    <t>85,500</t>
-  </si>
-  <si>
-    <t>病覺缺失症</t>
-  </si>
-  <si>
-    <t>971,000</t>
-  </si>
-  <si>
-    <t>破壞行為疾病</t>
-  </si>
-  <si>
-    <t>11,600,000</t>
-  </si>
-  <si>
-    <t>神經原纖維纏結</t>
-  </si>
-  <si>
-    <t>483,000</t>
-  </si>
-  <si>
-    <t>神經衰弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神經發展疾患 </t>
-  </si>
-  <si>
-    <t>1,240,000</t>
-  </si>
-  <si>
-    <t>神經過敏症</t>
-  </si>
-  <si>
-    <t>16,300,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神遊狀態 </t>
-  </si>
-  <si>
-    <t>1,160,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">迷幻劑持續感知障礙 </t>
-  </si>
-  <si>
-    <t>129,000</t>
-  </si>
-  <si>
-    <t>逃避性人格障礙</t>
-  </si>
-  <si>
-    <t>904,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆行性失憶症 </t>
-  </si>
-  <si>
-    <t>酒精戒斷症候群</t>
-  </si>
-  <si>
-    <t>54,200</t>
-  </si>
-  <si>
-    <t>酒精和藥物依賴</t>
-  </si>
-  <si>
-    <t>1,750,000</t>
-  </si>
-  <si>
-    <t>酒精性幻覺症</t>
-  </si>
-  <si>
-    <t>737,000</t>
-  </si>
-  <si>
-    <t>酒精性妄想症</t>
-  </si>
-  <si>
-    <t>696,000</t>
-  </si>
-  <si>
-    <t>酒精誘發精神障礙</t>
-  </si>
-  <si>
-    <t>563,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高功能自閉症 </t>
-  </si>
-  <si>
-    <t>1,260,000</t>
-  </si>
-  <si>
-    <t>假性痴呆</t>
-  </si>
-  <si>
-    <t>2,590,000</t>
-  </si>
-  <si>
-    <t>偏執型</t>
-  </si>
-  <si>
-    <t>6,500,000</t>
-  </si>
-  <si>
-    <t>偏執型人格障礙</t>
-  </si>
-  <si>
-    <t>446,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">健康食品痴迷症 </t>
-  </si>
-  <si>
-    <t>385,000</t>
-  </si>
-  <si>
-    <t>強制性覓藥行為</t>
-  </si>
-  <si>
-    <t>908,000</t>
-  </si>
-  <si>
-    <t>強迫型人格障礙</t>
-  </si>
-  <si>
-    <t>1,410,000</t>
-  </si>
-  <si>
-    <t>強迫症</t>
-  </si>
-  <si>
-    <t>10,500,000</t>
-  </si>
-  <si>
-    <t>強迫障礙</t>
-  </si>
-  <si>
-    <t>12,200,000</t>
-  </si>
-  <si>
-    <t>強迫觀念</t>
-  </si>
-  <si>
-    <t>6,590,000</t>
-  </si>
-  <si>
-    <t>情感性精神病</t>
-  </si>
-  <si>
-    <t>6,210,000</t>
-  </si>
-  <si>
-    <t>情感性障礙</t>
-  </si>
-  <si>
-    <t>25,900,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情感障礙 </t>
-  </si>
-  <si>
-    <t>29,000,000</t>
-  </si>
-  <si>
-    <t>情緒高漲</t>
-  </si>
-  <si>
-    <t>876,000</t>
-  </si>
-  <si>
-    <t>情緒障礙</t>
-  </si>
-  <si>
-    <t>28,100,000</t>
-  </si>
-  <si>
-    <t>晝夜節律性睡眠障礙</t>
-  </si>
-  <si>
-    <t>152,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">混合情感狀態 </t>
-  </si>
-  <si>
-    <t>9,130,000</t>
-  </si>
-  <si>
-    <t>猝倒</t>
+    <t>戀足</t>
+  </si>
+  <si>
+    <t>戀物性異裝</t>
+  </si>
+  <si>
+    <t>58,400</t>
+  </si>
+  <si>
+    <t>戀物癖</t>
+  </si>
+  <si>
+    <t>1,480,000</t>
+  </si>
+  <si>
+    <t>戀童癖</t>
+  </si>
+  <si>
+    <t>460,000</t>
+  </si>
+  <si>
+    <t>戀獸癖</t>
+  </si>
+  <si>
+    <t>7,620,000</t>
+  </si>
+  <si>
+    <t>竊盜癖</t>
+  </si>
+  <si>
+    <t>328,000</t>
+  </si>
+  <si>
+    <t>邏輯倒錯性思維</t>
+  </si>
+  <si>
+    <t>30,500</t>
+  </si>
+  <si>
+    <t>體化症</t>
+  </si>
+  <si>
+    <t>149,000,000</t>
+  </si>
+  <si>
+    <t>癲癇</t>
   </si>
   <si>
     <t>2,650,000</t>
   </si>
   <si>
-    <t>猝睡症</t>
-  </si>
-  <si>
-    <t>624,000</t>
-  </si>
-  <si>
-    <t>產後抑鬱症</t>
-  </si>
-  <si>
-    <t>304,000</t>
-  </si>
-  <si>
-    <t>產後憂鬱症</t>
-  </si>
-  <si>
-    <t>572,000</t>
-  </si>
-  <si>
-    <t>異食癖</t>
-  </si>
-  <si>
-    <t>106,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異睡症 </t>
-  </si>
-  <si>
-    <t>第一型雙極情感障礙單次躁症發作</t>
-  </si>
-  <si>
-    <t>212,000</t>
-  </si>
-  <si>
-    <t>脫毒</t>
-  </si>
-  <si>
-    <t>68,900,000</t>
-  </si>
-  <si>
-    <t>莫吉隆斯症</t>
-  </si>
-  <si>
-    <t>被愛妄想症</t>
-  </si>
-  <si>
-    <t>5,720,000</t>
-  </si>
-  <si>
-    <t>酗酒和藥物濫用</t>
-  </si>
-  <si>
-    <t>273,000</t>
-  </si>
-  <si>
-    <t>陰道痙攣</t>
-  </si>
-  <si>
-    <t>534,000</t>
-  </si>
-  <si>
-    <t>創傷後壓力心理障礙症</t>
-  </si>
-  <si>
-    <t>203,000</t>
-  </si>
-  <si>
-    <t>創傷後壓力症候群</t>
-  </si>
-  <si>
-    <t>317,000</t>
-  </si>
-  <si>
-    <t>創傷後應激障礙</t>
-  </si>
-  <si>
-    <t>2,130,000</t>
-  </si>
-  <si>
-    <t>喪慟</t>
-  </si>
-  <si>
-    <t>1,650,000</t>
-  </si>
-  <si>
-    <t>單純型</t>
-  </si>
-  <si>
-    <t>49,300,000</t>
-  </si>
-  <si>
-    <t>單胺氧化酶抑制劑</t>
-  </si>
-  <si>
-    <t>196,000</t>
-  </si>
-  <si>
-    <t>喹硫平</t>
-  </si>
-  <si>
-    <t>554,000</t>
-  </si>
-  <si>
-    <t>循環性精神病</t>
-  </si>
-  <si>
-    <t>5,610,000</t>
-  </si>
-  <si>
-    <t>揮發性溶劑</t>
-  </si>
-  <si>
-    <t>405,000</t>
-  </si>
-  <si>
-    <t>斯德哥爾摩症候群</t>
-  </si>
-  <si>
-    <t>69,200</t>
-  </si>
-  <si>
-    <t>智能不足</t>
-  </si>
-  <si>
-    <t>89,200,000</t>
-  </si>
-  <si>
-    <t>殘留型</t>
-  </si>
-  <si>
-    <t>34,400,000</t>
-  </si>
-  <si>
-    <t>氯丙嗪</t>
-  </si>
-  <si>
-    <t>2,700,000</t>
-  </si>
-  <si>
-    <t>氯氮平</t>
-  </si>
-  <si>
-    <t>3,180,000</t>
-  </si>
-  <si>
-    <t>渴求狀態</t>
-  </si>
-  <si>
-    <t>2,760,000</t>
-  </si>
-  <si>
-    <t>無用</t>
-  </si>
-  <si>
-    <t>55,800,000</t>
-  </si>
-  <si>
-    <t>無助</t>
-  </si>
-  <si>
-    <t>618,000,000</t>
-  </si>
-  <si>
-    <t>焦慮症</t>
-  </si>
-  <si>
-    <t>7,060,000</t>
-  </si>
-  <si>
-    <t>童樣痴呆</t>
-  </si>
-  <si>
-    <t>967,000</t>
-  </si>
-  <si>
-    <t>絕望</t>
-  </si>
-  <si>
-    <t>81,100,000</t>
-  </si>
-  <si>
-    <t>菸草</t>
-  </si>
-  <si>
-    <t>38,300,000</t>
-  </si>
-  <si>
-    <t>超價觀念</t>
-  </si>
-  <si>
-    <t>20,000,000</t>
-  </si>
-  <si>
-    <t>間歇性爆發性障礙</t>
-  </si>
-  <si>
-    <t>33,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">間隙性遺忘 </t>
-  </si>
-  <si>
-    <t>414,000</t>
-  </si>
-  <si>
-    <t>順行性遺忘症</t>
-  </si>
-  <si>
-    <t>1,540,000</t>
-  </si>
-  <si>
-    <t>飲食失調症</t>
-  </si>
-  <si>
-    <t>12,600,000</t>
-  </si>
-  <si>
-    <t>嗜睡症</t>
-  </si>
-  <si>
-    <t>5,960,000</t>
-  </si>
-  <si>
-    <t>奧氮平</t>
-  </si>
-  <si>
-    <t>3,150,000</t>
-  </si>
-  <si>
-    <t>意識</t>
-  </si>
-  <si>
-    <t>311,000,000</t>
-  </si>
-  <si>
-    <t>歇斯底里</t>
-  </si>
-  <si>
-    <t>6,050,000</t>
-  </si>
-  <si>
-    <t>痴呆</t>
-  </si>
-  <si>
-    <t>21,600,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裝病 </t>
-  </si>
-  <si>
-    <t>245,000,000</t>
-  </si>
-  <si>
-    <t>解離性失憶症</t>
-  </si>
-  <si>
-    <t>9,600</t>
-  </si>
-  <si>
-    <t>解離性障礙</t>
-  </si>
-  <si>
-    <t>85,000</t>
-  </si>
-  <si>
-    <t>解離症</t>
-  </si>
-  <si>
-    <t>4,080,000</t>
-  </si>
-  <si>
-    <t>違拗症</t>
-  </si>
-  <si>
-    <t>46,400</t>
-  </si>
-  <si>
-    <t>電休克</t>
-  </si>
-  <si>
-    <t>4,380,000</t>
-  </si>
-  <si>
-    <t>電玩成癮症</t>
-  </si>
-  <si>
-    <t>593,000</t>
-  </si>
-  <si>
-    <t>夢遊症</t>
-  </si>
-  <si>
-    <t>4,340,000</t>
-  </si>
-  <si>
-    <t>夢囈性精神病</t>
-  </si>
-  <si>
-    <t>27,300</t>
-  </si>
-  <si>
-    <t>夢魘症</t>
-  </si>
-  <si>
-    <t>2,960,000</t>
-  </si>
-  <si>
-    <t>對立反抗性疾患</t>
-  </si>
-  <si>
-    <t>8,130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">對立反抗症 </t>
-  </si>
-  <si>
-    <t>110,000</t>
-  </si>
-  <si>
-    <t>慢性抽動障礙</t>
-  </si>
-  <si>
-    <t>990,000</t>
-  </si>
-  <si>
-    <t>慢性腦綜合徵</t>
-  </si>
-  <si>
-    <t>9,680,000</t>
-  </si>
-  <si>
-    <t>犒賞系統</t>
-  </si>
-  <si>
-    <t>1,170,000</t>
-  </si>
-  <si>
-    <t>疑病妄想</t>
-  </si>
-  <si>
-    <t>2,640,000</t>
-  </si>
-  <si>
-    <t>疑病症</t>
-  </si>
-  <si>
-    <t>2,190,000</t>
-  </si>
-  <si>
-    <t>睡眠障礙</t>
-  </si>
-  <si>
-    <t>23,000,000</t>
-  </si>
-  <si>
-    <t>精神分裂症</t>
-  </si>
-  <si>
-    <t>14,500,000</t>
-  </si>
-  <si>
-    <t>精神分裂症後抑鬱</t>
-  </si>
-  <si>
-    <t>4,660,000</t>
-  </si>
-  <si>
-    <t>精神失常</t>
-  </si>
-  <si>
-    <t>8,330,000</t>
-  </si>
-  <si>
-    <t>精神官能症</t>
-  </si>
-  <si>
-    <t>5,020,000</t>
-  </si>
-  <si>
-    <t>精神活性物質</t>
-  </si>
-  <si>
-    <t>精神病學</t>
-  </si>
-  <si>
-    <t>24,600,000</t>
-  </si>
-  <si>
-    <t>精神發育遲滯</t>
-  </si>
-  <si>
-    <t>484,000</t>
-  </si>
-  <si>
-    <t>精神障礙</t>
-  </si>
-  <si>
-    <t>84,000,000</t>
-  </si>
-  <si>
-    <t>精神興奮劑</t>
-  </si>
-  <si>
-    <t>9,180,000</t>
-  </si>
-  <si>
-    <t>維思通</t>
-  </si>
-  <si>
-    <t>67,600,000</t>
-  </si>
-  <si>
-    <t>緊張型</t>
-  </si>
-  <si>
-    <t>115,000,000</t>
-  </si>
-  <si>
-    <t>裸露癖</t>
-  </si>
-  <si>
-    <t>2,610,000</t>
-  </si>
-  <si>
-    <t>語詞新作</t>
-  </si>
-  <si>
-    <t>149,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">輕度狂躁 </t>
-  </si>
-  <si>
-    <t>廣泛性焦慮症</t>
-  </si>
-  <si>
-    <t>廣泛性焦慮障礙</t>
-  </si>
-  <si>
-    <t>2,880,000</t>
-  </si>
-  <si>
-    <t>廣泛性發展障礙</t>
-  </si>
-  <si>
-    <t>廣場恐懼症</t>
-  </si>
-  <si>
-    <t>35,000,000</t>
-  </si>
-  <si>
-    <t>憂鬱</t>
-  </si>
-  <si>
-    <t>48,100,000</t>
-  </si>
-  <si>
-    <t>憂鬱症</t>
-  </si>
-  <si>
-    <t>摩擦癖</t>
-  </si>
-  <si>
-    <t>8,230,000</t>
-  </si>
-  <si>
-    <t>數學障礙</t>
-  </si>
-  <si>
-    <t>15,900,000</t>
-  </si>
-  <si>
-    <t>暴食症</t>
-  </si>
-  <si>
-    <t>5,870,000</t>
-  </si>
-  <si>
-    <t>模仿言語</t>
-  </si>
-  <si>
-    <t>3,260,000</t>
-  </si>
-  <si>
-    <t>衝動控制失調</t>
-  </si>
-  <si>
-    <t>639,000</t>
-  </si>
-  <si>
-    <t>適應障礙</t>
-  </si>
-  <si>
-    <t>25,000,000</t>
-  </si>
-  <si>
-    <t>鋰鹽</t>
-  </si>
-  <si>
-    <t>8,780,000</t>
-  </si>
-  <si>
-    <t>震顫性譫妄</t>
-  </si>
-  <si>
-    <t>97,500</t>
-  </si>
-  <si>
-    <t>器質性及物質引發的精神疾病</t>
-  </si>
-  <si>
-    <t>52,900</t>
-  </si>
-  <si>
-    <t>學習障礙</t>
-  </si>
-  <si>
-    <t>27,200,000</t>
-  </si>
-  <si>
-    <t>興奮劑</t>
-  </si>
-  <si>
-    <t>24,100,000</t>
-  </si>
-  <si>
-    <t>選擇性5-HT再攝取抑制劑</t>
-  </si>
-  <si>
-    <t>59,300</t>
-  </si>
-  <si>
-    <t>遺忘綜合</t>
-  </si>
-  <si>
-    <t>10,300,000</t>
-  </si>
-  <si>
-    <t>錯覺</t>
-  </si>
-  <si>
-    <t>22,900,000</t>
-  </si>
-  <si>
-    <t>濫用</t>
-  </si>
-  <si>
-    <t>13,200,000</t>
-  </si>
-  <si>
-    <t>縱火狂</t>
-  </si>
-  <si>
-    <t>5,600,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蕾特氏症 </t>
-  </si>
-  <si>
-    <t>2,930,000</t>
-  </si>
-  <si>
-    <t>鍾情妄想</t>
-  </si>
-  <si>
-    <t>430,000</t>
-  </si>
-  <si>
-    <t>顆粒空泡變性</t>
-  </si>
-  <si>
-    <t>33,900,000</t>
-  </si>
-  <si>
-    <t>癔症</t>
-  </si>
-  <si>
-    <t>癔症球</t>
-  </si>
-  <si>
-    <t>323,000</t>
-  </si>
-  <si>
-    <t>藏書癖</t>
-  </si>
-  <si>
-    <t>396,000</t>
-  </si>
-  <si>
-    <t>軀體形式障礙</t>
-  </si>
-  <si>
-    <t>1,050,000</t>
-  </si>
-  <si>
-    <t>軀體依賴</t>
-  </si>
-  <si>
-    <t>軀體變形障礙</t>
-  </si>
-  <si>
-    <t>316,000</t>
-  </si>
-  <si>
-    <t>轉化症</t>
-  </si>
-  <si>
-    <t>17,400,000</t>
-  </si>
-  <si>
-    <t>雙極性情感精神病</t>
-  </si>
-  <si>
-    <t>16,000</t>
-  </si>
-  <si>
-    <t>邊緣性人格疾患</t>
-  </si>
-  <si>
-    <t>114,000</t>
-  </si>
-  <si>
-    <t>邊緣性人格障礙</t>
-  </si>
-  <si>
-    <t>292,000</t>
-  </si>
-  <si>
-    <t>類精神分裂人格異常</t>
-  </si>
-  <si>
-    <t>1,520,000</t>
-  </si>
-  <si>
-    <t>嚴重憂鬱症</t>
-  </si>
-  <si>
-    <t>3,080,000</t>
-  </si>
-  <si>
-    <t>譫妄</t>
-  </si>
-  <si>
-    <t>711,000</t>
-  </si>
-  <si>
-    <t>躁狂症</t>
-  </si>
-  <si>
-    <t>42,800,000</t>
-  </si>
-  <si>
-    <t>躁鬱</t>
-  </si>
-  <si>
-    <t>2,720,000</t>
-  </si>
-  <si>
-    <t>躁鬱症</t>
-  </si>
-  <si>
-    <t>騰雲駕霧感</t>
-  </si>
-  <si>
-    <t>懼高症</t>
-  </si>
-  <si>
-    <t>7,950,000</t>
-  </si>
-  <si>
-    <t>聽幻覺</t>
-  </si>
-  <si>
-    <t>8,380,000</t>
-  </si>
-  <si>
-    <t>戀足</t>
-  </si>
-  <si>
-    <t>324,000</t>
-  </si>
-  <si>
-    <t>戀物性異裝</t>
-  </si>
-  <si>
-    <t>56,800</t>
-  </si>
-  <si>
-    <t>戀物癖</t>
-  </si>
-  <si>
-    <t>2,120,000</t>
-  </si>
-  <si>
-    <t>戀童癖</t>
-  </si>
-  <si>
-    <t>476,000</t>
-  </si>
-  <si>
-    <t>戀獸癖</t>
-  </si>
-  <si>
-    <t>竊盜癖</t>
-  </si>
-  <si>
-    <t>293,000</t>
-  </si>
-  <si>
-    <t>邏輯倒錯性思維</t>
-  </si>
-  <si>
-    <t>30,200</t>
-  </si>
-  <si>
-    <t>體化症</t>
-  </si>
-  <si>
-    <t>201,000,000</t>
-  </si>
-  <si>
-    <t>癲癇</t>
-  </si>
-  <si>
-    <t>2,780,000</t>
-  </si>
-  <si>
     <t>精神分裂症</t>
-  </si>
-  <si>
-    <t>病症</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2082,9 +1805,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2092,36 +1815,35 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" si="0">LOG10(B2)</f>
-        <v>6.7923916894982534</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D65" si="1">IF(C2&lt;6.05,0,1)</f>
@@ -2134,14 +1856,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>6.7143297597452332</v>
+        <v>6.7339992865383866</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
@@ -2154,34 +1876,34 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>6.008600171761918</v>
+        <v>6.1335389083702179</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>7.0170333392987807</v>
+        <v>6.933993163831242</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -2194,14 +1916,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.6848453616444123</v>
+        <v>6.47567118832443</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -2214,14 +1936,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6.8055008581583998</v>
+        <v>7.5301996982030825</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
@@ -2234,14 +1956,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>7.008600171761918</v>
+        <v>6.7209857441537393</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -2254,14 +1976,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>7.6222140229662951</v>
+        <v>6.4983105537896009</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -2274,34 +1996,34 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.7193312869837269</v>
+        <v>5.1673173347481764</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6.4698220159781634</v>
+        <v>6.1846914308175984</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -2314,74 +2036,74 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>5.1846914308175984</v>
+        <v>6.3838153659804311</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6.1522883443830567</v>
+        <v>5.4578818967339924</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6.3384564936046051</v>
+        <v>5.5453071164658239</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>5.4281347940287885</v>
+        <v>5.8597385661971471</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -2394,14 +2116,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>5.5289167002776551</v>
+        <v>4.7084209001347128</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -2414,14 +2136,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5.8444771757456815</v>
+        <v>4.976349979003273</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -2434,74 +2156,74 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>5.2504200023088936</v>
+        <v>6.8893017025063106</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>8.4638929889859078</v>
+        <v>5.860338006570994</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>4.6839471307515126</v>
+        <v>6.2576785748691846</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>5.008600171761918</v>
+        <v>4.7474118078864231</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -2514,14 +2236,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>6.8228216453031045</v>
+        <v>6.585460729508501</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -2534,74 +2256,74 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>5.702430536445525</v>
+        <v>6.8182258936139553</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>7.2479732663618064</v>
+        <v>5.3961993470957363</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>6.1583624920952493</v>
+        <v>3.8561244442423002</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>6.7084209001347128</v>
+        <v>7.5198279937757189</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -2614,14 +2336,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>7.7965743332104296</v>
+        <v>7.3384564936046051</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -2634,14 +2356,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>4.6928469192772297</v>
+        <v>5.5865873046717551</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -2654,34 +2376,34 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>6.5465426634781307</v>
+        <v>5.858537197569639</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>6.8887409606828927</v>
+        <v>7.648360010980932</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -2694,14 +2416,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>5.2900346113625183</v>
+        <v>5.5526682161121936</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -2714,34 +2436,34 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3.8645110810583918</v>
+        <v>7.2624510897304297</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>7.5550944485783189</v>
+        <v>6.53655844257153</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -2754,14 +2476,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>7.2900346113625183</v>
+        <v>6.8530895298518653</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -2774,62 +2496,62 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>5.6085260335771938</v>
+        <v>8.1613680022349744</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>5.7965743332104296</v>
+        <v>7.4885507165004439</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>7.2718416065364986</v>
+        <v>5.3961993470957363</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,15 +2563,15 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>5.503790683057181</v>
+        <v>7.7558748556724915</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,7 +2583,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>7.143014800254095</v>
+        <v>8.4533183400470371</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -2881,7 +2603,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>6.4456042032735974</v>
+        <v>7.4183012913197457</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -2901,15 +2623,15 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>4.7937903846908183</v>
+        <v>7.0043213737826422</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,7 +2643,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>6.9036325160842376</v>
+        <v>6.5065050324048723</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -2941,7 +2663,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>8.1205739312058505</v>
+        <v>6.9020028913507296</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -2961,15 +2683,15 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>7.4698220159781634</v>
+        <v>4.8561244442423002</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,15 +2703,15 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>6.9138138523837167</v>
+        <v>4.8188854145940097</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,15 +2723,15 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>8.1986570869544231</v>
+        <v>5.2355284469075487</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3021,15 +2743,15 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>5.4014005407815437</v>
+        <v>6.6560982020128323</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,7 +2763,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>8.6253124509616743</v>
+        <v>7.5797835966168101</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -3061,15 +2783,15 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>7.5998830720736876</v>
+        <v>5.8318697742805012</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,7 +2803,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>8.5763413502057926</v>
+        <v>6.7067177823367583</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
@@ -3101,7 +2823,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>7.4668676203541091</v>
+        <v>6.4828735836087539</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -3121,7 +2843,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>7.1492191126553797</v>
+        <v>6.7419390777291985</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -3141,7 +2863,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>6.5237464668115646</v>
+        <v>6.4996870826184034</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
@@ -3161,15 +2883,15 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>6.8836614351536172</v>
+        <v>5.4785664955938431</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,7 +2903,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>4.802773725291976</v>
+        <v>5.6720978579357171</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
@@ -3197,31 +2919,31 @@
         <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>4.8337843746564788</v>
+        <v>6.4828735836087539</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>5.1139433523068369</v>
+        <v>4.8813846567705728</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
@@ -3234,34 +2956,34 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>6.5428254269591797</v>
+        <v>4.1818435879447726</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
         <v>118</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>6.9211660506377388</v>
+        <v>6.0863598306747484</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
@@ -3274,14 +2996,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>121</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>7.5740312677277188</v>
+        <v>6.9025467793139912</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
@@ -3294,14 +3016,14 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
         <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>5.8419848045901137</v>
+        <v>5.6364878963533656</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
@@ -3314,14 +3036,14 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
         <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>6.6893088591236198</v>
+        <v>6.5921767573958672</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
@@ -3334,14 +3056,14 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
         <v>126</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>6.4771212547196626</v>
+        <v>6.826074802700826</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
@@ -3354,14 +3076,14 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
         <v>128</v>
-      </c>
-      <c r="B64" t="s">
-        <v>129</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>6.9180303367848799</v>
+        <v>6.1818435879447726</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
@@ -3374,34 +3096,34 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
         <v>130</v>
-      </c>
-      <c r="B65" t="s">
-        <v>131</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>6.4548448600085102</v>
+        <v>5.3324384599156049</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C129" si="3">LOG10(B66)</f>
-        <v>5.3031960574204886</v>
+        <v>5.9365137424788932</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D129" si="4">IF(C66&lt;6.05,0,1)</f>
@@ -3414,14 +3136,14 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" t="s">
-        <v>135</v>
       </c>
       <c r="C67">
         <f t="shared" si="3"/>
-        <v>7.2174839442139067</v>
+        <v>6.3384564936046051</v>
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
@@ -3434,34 +3156,34 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>5.4842998393467859</v>
+        <v>7.909020854211156</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" t="s">
-        <v>139</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>6.4471580313422194</v>
+        <v>8.2405492482825995</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
@@ -3474,34 +3196,34 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>4.8674674878590514</v>
+        <v>6.5301996982030825</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>8.4297522800024076</v>
+        <v>7.795880017344075</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
@@ -3514,54 +3236,54 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>145</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>4.1522883443830567</v>
+        <v>7.5010592622177512</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>6.0969100130080562</v>
+        <v>5.4099331233312942</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" t="s">
-        <v>149</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>7.4166405073382808</v>
+        <v>6.5132176000679394</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
@@ -3574,14 +3296,14 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>6.752816431188271</v>
+        <v>6.1335389083702179</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
@@ -3594,54 +3316,54 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>5.6901960800285138</v>
+        <v>6.9429995933660402</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>6.5965970956264606</v>
+        <v>5.6766936096248664</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>6.7972675408307168</v>
+        <v>6.47567118832443</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
@@ -3654,14 +3376,14 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>6.3765769570565123</v>
+        <v>6.204119982655925</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
@@ -3674,14 +3396,14 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>5.3138672203691533</v>
+        <v>5.935003151453655</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
@@ -3694,14 +3416,14 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>5.8943160626844389</v>
+        <v>5.7788744720027392</v>
       </c>
       <c r="D81">
         <f t="shared" si="4"/>
@@ -3714,14 +3436,14 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>6.3053513694466234</v>
+        <v>6.3617278360175931</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
@@ -3734,34 +3456,34 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>7.6414741105040997</v>
+        <v>4.3765769570565123</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>6.5622928644564746</v>
+        <v>7.0644579892269181</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
@@ -3774,14 +3496,14 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>5.9881128402683519</v>
+        <v>5.7745169657285498</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
@@ -3794,34 +3516,34 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>7.0827853703164498</v>
+        <v>5.5185139398778871</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>6.7075701760979367</v>
+        <v>7.071882007306125</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
@@ -3834,34 +3556,34 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>6.989004615698537</v>
+        <v>5.220108088040055</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>5.4771212547196626</v>
+        <v>3.4216039268698313</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
@@ -3874,34 +3596,34 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>6.2528530309798933</v>
+        <v>5.2671717284030137</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>6.4828735836087539</v>
+        <v>7.3909351071033793</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
@@ -3914,14 +3636,14 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>6.1613680022349753</v>
+        <v>7.3364597338485291</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
@@ -3934,14 +3656,14 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>6.9079485216122727</v>
+        <v>6.4683473304121577</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
@@ -3954,54 +3676,54 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>8.214843848047698</v>
+        <v>5.7810369386211322</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>5.6946051989335684</v>
+        <v>7.9508514588885468</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>6.2855573090077739</v>
+        <v>7.752816431188271</v>
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
@@ -4014,14 +3736,14 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>6.9542425094393252</v>
+        <v>6.860338006570994</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
@@ -4034,34 +3756,34 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>4.7916906490201177</v>
+        <v>6.4653828514484184</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>6.7134905430939424</v>
+        <v>6.8813846567705728</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
@@ -4074,14 +3796,14 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>6.1271047983648073</v>
+        <v>7.5998830720736876</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
@@ -4094,54 +3816,54 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>5.9614210940664485</v>
+        <v>7.2648178230095368</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>7.0606978403536118</v>
+        <v>5.2944662261615933</v>
       </c>
       <c r="D102">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
-        <v>5.8992731873176041</v>
+        <v>4.9444826721501682</v>
       </c>
       <c r="D103">
         <f t="shared" si="4"/>
@@ -4154,14 +3876,14 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>6.2304489213782741</v>
+        <v>6.1238516409670858</v>
       </c>
       <c r="D104">
         <f t="shared" si="4"/>
@@ -4174,14 +3896,14 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>6.7944880466591693</v>
+        <v>7.4828735836087539</v>
       </c>
       <c r="D105">
         <f t="shared" si="4"/>
@@ -4194,54 +3916,54 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>6.2648178230095368</v>
+        <v>5.7671558660821809</v>
       </c>
       <c r="D106">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>5.9385197251764916</v>
+        <v>6.1335389083702179</v>
       </c>
       <c r="D107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>5.7323937598229682</v>
+        <v>5.9947569445876283</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
@@ -4254,14 +3976,14 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>6.2671717284030137</v>
+        <v>7.2479732663618064</v>
       </c>
       <c r="D109">
         <f t="shared" si="4"/>
@@ -4274,14 +3996,14 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>4.419955748489758</v>
+        <v>5.1398790864012369</v>
       </c>
       <c r="D110">
         <f t="shared" si="4"/>
@@ -4294,14 +4016,14 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>6.860338006570994</v>
+        <v>6.1643528557844371</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
@@ -4314,34 +4036,34 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>5.7497363155690611</v>
+        <v>7.4638929889859069</v>
       </c>
       <c r="D112">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>5.5185139398778871</v>
+        <v>4.6627578316815743</v>
       </c>
       <c r="D113">
         <f t="shared" si="4"/>
@@ -4354,14 +4076,14 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>7.9680157139936414</v>
+        <v>6.344392273685111</v>
       </c>
       <c r="D114">
         <f t="shared" si="4"/>
@@ -4374,34 +4096,34 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>7.2479732663618064</v>
+        <v>5.8692317197309762</v>
       </c>
       <c r="D115">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>5.2455126678141495</v>
+        <v>5.8609366207000937</v>
       </c>
       <c r="D116">
         <f t="shared" si="4"/>
@@ -4414,14 +4136,14 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>3.424881636631067</v>
+        <v>5.790285164033242</v>
       </c>
       <c r="D117">
         <f t="shared" si="4"/>
@@ -4434,34 +4156,34 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>5.204119982655925</v>
+        <v>6.1673173347481764</v>
       </c>
       <c r="D118">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="5"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>7.344392273685111</v>
+        <v>6.6812412373755876</v>
       </c>
       <c r="D119">
         <f t="shared" si="4"/>
@@ -4474,14 +4196,14 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>7.0492180226701819</v>
+        <v>6.7951845896824237</v>
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
@@ -4494,34 +4216,34 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>6.2648178230095368</v>
+        <v>5.8241258339165487</v>
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="5"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
-        <v>5.7641761323903307</v>
+        <v>5.6646419755561253</v>
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
@@ -4534,14 +4256,14 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
-        <v>7.5705429398818973</v>
+        <v>6.2304489213782741</v>
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
@@ -4554,14 +4276,14 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
-        <v>7.6253124509616734</v>
+        <v>6.1673173347481764</v>
       </c>
       <c r="D124">
         <f t="shared" si="4"/>
@@ -4574,14 +4296,14 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
-        <v>6.836324115706752</v>
+        <v>6.9973863843973136</v>
       </c>
       <c r="D125">
         <f t="shared" si="4"/>
@@ -4594,14 +4316,14 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
-        <v>6.424881636631067</v>
+        <v>7.2671717284030137</v>
       </c>
       <c r="D126">
         <f t="shared" si="4"/>
@@ -4614,14 +4336,14 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
-        <v>6.7895807121644252</v>
+        <v>6.9907826918031377</v>
       </c>
       <c r="D127">
         <f t="shared" si="4"/>
@@ -4634,14 +4356,14 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C128">
         <f t="shared" si="3"/>
-        <v>7.1461280356782382</v>
+        <v>6.79309160017658</v>
       </c>
       <c r="D128">
         <f t="shared" si="4"/>
@@ -4654,14 +4376,14 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C129">
         <f t="shared" si="3"/>
-        <v>7.2988530764097064</v>
+        <v>7.5118833609788744</v>
       </c>
       <c r="D129">
         <f t="shared" si="4"/>
@@ -4674,34 +4396,34 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C193" si="6">LOG10(B130)</f>
-        <v>5.1643528557844371</v>
+        <v>7.5877109650189114</v>
       </c>
       <c r="D130">
         <f t="shared" ref="D130:D193" si="7">IF(C130&lt;6.05,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ref="E130:E193" si="8">IF(D130=1,"常見","不常見")</f>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C131">
         <f t="shared" si="6"/>
-        <v>4.8976270912904418</v>
+        <v>6.0170333392987807</v>
       </c>
       <c r="D131">
         <f t="shared" si="7"/>
@@ -4714,34 +4436,34 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C132">
         <f t="shared" si="6"/>
-        <v>4.9319661147281728</v>
+        <v>7.5327543789924976</v>
       </c>
       <c r="D132">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C133">
         <f t="shared" si="6"/>
-        <v>5.9872192299080051</v>
+        <v>5.2504200023088936</v>
       </c>
       <c r="D133">
         <f t="shared" si="7"/>
@@ -4754,14 +4476,14 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C134">
         <f t="shared" si="6"/>
-        <v>7.0644579892269181</v>
+        <v>6.9758911364017928</v>
       </c>
       <c r="D134">
         <f t="shared" si="7"/>
@@ -4774,14 +4496,14 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C135">
         <f t="shared" si="6"/>
-        <v>5.6839471307515126</v>
+        <v>5.7267272090265724</v>
       </c>
       <c r="D135">
         <f t="shared" si="7"/>
@@ -4794,74 +4516,74 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="C136">
         <f t="shared" si="6"/>
-        <v>6.1583624920952493</v>
+        <v>5.4814426285023048</v>
       </c>
       <c r="D136">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C137">
         <f t="shared" si="6"/>
-        <v>6.0934216851622347</v>
+        <v>5.8162412999917832</v>
       </c>
       <c r="D137">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C138">
         <f t="shared" si="6"/>
-        <v>7.2121876044039581</v>
+        <v>5.0492180226701819</v>
       </c>
       <c r="D138">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C139">
         <f t="shared" si="6"/>
-        <v>6.0644579892269181</v>
+        <v>7.5786392099680722</v>
       </c>
       <c r="D139">
         <f t="shared" si="7"/>
@@ -4874,14 +4596,14 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C140">
         <f t="shared" si="6"/>
-        <v>5.1105897102992488</v>
+        <v>5.3560258571931225</v>
       </c>
       <c r="D140">
         <f t="shared" si="7"/>
@@ -4894,14 +4616,14 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C141">
         <f t="shared" si="6"/>
-        <v>5.9561684304753637</v>
+        <v>5.2878017299302265</v>
       </c>
       <c r="D141">
         <f t="shared" si="7"/>
@@ -4914,14 +4636,14 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C142">
         <f t="shared" si="6"/>
-        <v>7.2988530764097064</v>
+        <v>6.7551122663950709</v>
       </c>
       <c r="D142">
         <f t="shared" si="7"/>
@@ -4934,14 +4656,14 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" t="s">
         <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>283</v>
       </c>
       <c r="C143">
         <f t="shared" si="6"/>
-        <v>4.7339992865383866</v>
+        <v>5.5538830266438746</v>
       </c>
       <c r="D143">
         <f t="shared" si="7"/>
@@ -4954,34 +4676,34 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
         <v>284</v>
-      </c>
-      <c r="B144" t="s">
-        <v>285</v>
       </c>
       <c r="C144">
         <f t="shared" si="6"/>
-        <v>6.2430380486862944</v>
+        <v>5.3521825181113627</v>
       </c>
       <c r="D144">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
         <v>286</v>
-      </c>
-      <c r="B145" t="s">
-        <v>287</v>
       </c>
       <c r="C145">
         <f t="shared" si="6"/>
-        <v>5.8674674878590514</v>
+        <v>5.509202522331103</v>
       </c>
       <c r="D145">
         <f t="shared" si="7"/>
@@ -4994,94 +4716,94 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
         <v>288</v>
-      </c>
-      <c r="B146" t="s">
-        <v>289</v>
       </c>
       <c r="C146">
         <f t="shared" si="6"/>
-        <v>5.842609239610562</v>
+        <v>6.4048337166199385</v>
       </c>
       <c r="D146">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
         <v>290</v>
-      </c>
-      <c r="B147" t="s">
-        <v>291</v>
       </c>
       <c r="C147">
         <f t="shared" si="6"/>
-        <v>5.7505083948513462</v>
+        <v>7.782472624166286</v>
       </c>
       <c r="D147">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
         <v>292</v>
-      </c>
-      <c r="B148" t="s">
-        <v>293</v>
       </c>
       <c r="C148">
         <f t="shared" si="6"/>
-        <v>6.1003705451175625</v>
+        <v>5.2741578492636796</v>
       </c>
       <c r="D148">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
         <v>294</v>
-      </c>
-      <c r="B149" t="s">
-        <v>295</v>
       </c>
       <c r="C149">
         <f t="shared" si="6"/>
-        <v>6.4132997640812519</v>
+        <v>5.6541765418779608</v>
       </c>
       <c r="D149">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
         <v>296</v>
-      </c>
-      <c r="B150" t="s">
-        <v>297</v>
       </c>
       <c r="C150">
         <f t="shared" si="6"/>
-        <v>6.8129133566428557</v>
+        <v>6.7379873263334309</v>
       </c>
       <c r="D150">
         <f t="shared" si="7"/>
@@ -5094,14 +4816,14 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C151">
         <f t="shared" si="6"/>
-        <v>5.6493348587121419</v>
+        <v>5.5538830266438746</v>
       </c>
       <c r="D151">
         <f t="shared" si="7"/>
@@ -5114,14 +4836,14 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C152">
         <f t="shared" si="6"/>
-        <v>5.585460729508501</v>
+        <v>4.8692317197309762</v>
       </c>
       <c r="D152">
         <f t="shared" si="7"/>
@@ -5134,34 +4856,34 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C153">
         <f t="shared" si="6"/>
-        <v>5.958085848521085</v>
+        <v>8.0293837776852097</v>
       </c>
       <c r="D153">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154">
         <f t="shared" si="6"/>
-        <v>6.1492191126553797</v>
+        <v>7.5276299008713385</v>
       </c>
       <c r="D154">
         <f t="shared" si="7"/>
@@ -5174,14 +4896,14 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C155">
         <f t="shared" si="6"/>
-        <v>7.0211892990699383</v>
+        <v>6.3138672203691533</v>
       </c>
       <c r="D155">
         <f t="shared" si="7"/>
@@ -5194,14 +4916,14 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C156">
         <f t="shared" si="6"/>
-        <v>7.0863598306747484</v>
+        <v>6.4313637641589869</v>
       </c>
       <c r="D156">
         <f t="shared" si="7"/>
@@ -5214,14 +4936,14 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C157">
         <f t="shared" si="6"/>
-        <v>6.8188854145940097</v>
+        <v>6.6009728956867484</v>
       </c>
       <c r="D157">
         <f t="shared" si="7"/>
@@ -5234,14 +4956,14 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158">
         <f t="shared" si="6"/>
-        <v>6.79309160017658</v>
+        <v>6.909020854211156</v>
       </c>
       <c r="D158">
         <f t="shared" si="7"/>
@@ -5254,14 +4976,14 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C159">
         <f t="shared" si="6"/>
-        <v>7.4132997640812519</v>
+        <v>6.2528530309798933</v>
       </c>
       <c r="D159">
         <f t="shared" si="7"/>
@@ -5274,34 +4996,34 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C160">
         <f t="shared" si="6"/>
-        <v>7.4623979978989565</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="D160">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C161">
         <f t="shared" si="6"/>
-        <v>5.942504106168081</v>
+        <v>5.6785183790401144</v>
       </c>
       <c r="D161">
         <f t="shared" si="7"/>
@@ -5314,14 +5036,14 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C162">
         <f t="shared" si="6"/>
-        <v>7.4487063199050798</v>
+        <v>6.3031960574204886</v>
       </c>
       <c r="D162">
         <f t="shared" si="7"/>
@@ -5334,34 +5056,34 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C163">
         <f t="shared" si="6"/>
-        <v>5.1818435879447726</v>
+        <v>7.0334237554869494</v>
       </c>
       <c r="D163">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C164">
         <f t="shared" si="6"/>
-        <v>6.9604707775342991</v>
+        <v>6.7395723444500923</v>
       </c>
       <c r="D164">
         <f t="shared" si="7"/>
@@ -5374,14 +5096,14 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C165">
         <f t="shared" si="6"/>
-        <v>6.4232458739368079</v>
+        <v>6.4377505628203879</v>
       </c>
       <c r="D165">
         <f t="shared" si="7"/>
@@ -5394,34 +5116,34 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C166">
         <f t="shared" si="6"/>
-        <v>5.7951845896824237</v>
+        <v>7.4361626470407565</v>
       </c>
       <c r="D166">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C167">
         <f t="shared" si="6"/>
-        <v>5.4828735836087539</v>
+        <v>4.0211892990699383</v>
       </c>
       <c r="D167">
         <f t="shared" si="7"/>
@@ -5434,14 +5156,14 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C168">
         <f t="shared" si="6"/>
-        <v>5.7573960287930239</v>
+        <v>4.9666109866819346</v>
       </c>
       <c r="D168">
         <f t="shared" si="7"/>
@@ -5454,154 +5176,154 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="C169">
         <f t="shared" si="6"/>
-        <v>5.0253058652647704</v>
+        <v>6.4996870826184034</v>
       </c>
       <c r="D169">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="C170">
         <f t="shared" si="6"/>
-        <v>7.2718416065364986</v>
+        <v>4.6821450763738319</v>
       </c>
       <c r="D170">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C171">
         <f t="shared" si="6"/>
-        <v>5.3263358609287517</v>
+        <v>6.5465426634781307</v>
       </c>
       <c r="D171">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C172">
         <f t="shared" si="6"/>
-        <v>7.8382192219076261</v>
+        <v>5.7160033436347994</v>
       </c>
       <c r="D172">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s">
-        <v>115</v>
+        <v>340</v>
       </c>
       <c r="C173">
         <f t="shared" si="6"/>
-        <v>5.1139433523068369</v>
+        <v>6.6522463410033232</v>
       </c>
       <c r="D173">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" t="s">
         <v>342</v>
-      </c>
-      <c r="B174" t="s">
-        <v>343</v>
       </c>
       <c r="C174">
         <f t="shared" si="6"/>
-        <v>6.7573960287930239</v>
+        <v>4.5198279937757189</v>
       </c>
       <c r="D174">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
         <v>344</v>
-      </c>
-      <c r="B175" t="s">
-        <v>345</v>
       </c>
       <c r="C175">
         <f t="shared" si="6"/>
-        <v>5.4361626470407565</v>
+        <v>6.424881636631067</v>
       </c>
       <c r="D175">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" t="s">
         <v>346</v>
-      </c>
-      <c r="B176" t="s">
-        <v>347</v>
       </c>
       <c r="C176">
         <f t="shared" si="6"/>
-        <v>5.7275412570285562</v>
+        <v>3.9758911364017928</v>
       </c>
       <c r="D176">
         <f t="shared" si="7"/>
@@ -5614,14 +5336,14 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
         <v>348</v>
-      </c>
-      <c r="B177" t="s">
-        <v>349</v>
       </c>
       <c r="C177">
         <f t="shared" si="6"/>
-        <v>5.3074960379132126</v>
+        <v>5.008600171761918</v>
       </c>
       <c r="D177">
         <f t="shared" si="7"/>
@@ -5634,14 +5356,14 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" t="s">
         <v>350</v>
-      </c>
-      <c r="B178" t="s">
-        <v>351</v>
       </c>
       <c r="C178">
         <f t="shared" si="6"/>
-        <v>5.5010592622177512</v>
+        <v>5.9474337218870508</v>
       </c>
       <c r="D178">
         <f t="shared" si="7"/>
@@ -5654,14 +5376,14 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" t="s">
         <v>352</v>
-      </c>
-      <c r="B179" t="s">
-        <v>353</v>
       </c>
       <c r="C179">
         <f t="shared" si="6"/>
-        <v>6.3283796034387381</v>
+        <v>6.9153998352122699</v>
       </c>
       <c r="D179">
         <f t="shared" si="7"/>
@@ -5674,14 +5396,14 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="C180">
         <f t="shared" si="6"/>
-        <v>6.2174839442139067</v>
+        <v>6.47567118832443</v>
       </c>
       <c r="D180">
         <f t="shared" si="7"/>
@@ -5694,14 +5416,14 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C181">
         <f t="shared" si="6"/>
-        <v>7.6928469192772297</v>
+        <v>6.4082399653118491</v>
       </c>
       <c r="D181">
         <f t="shared" si="7"/>
@@ -5714,54 +5436,54 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C182">
         <f t="shared" si="6"/>
-        <v>5.2922560713564764</v>
+        <v>7.2787536009528289</v>
       </c>
       <c r="D182">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C183">
         <f t="shared" si="6"/>
-        <v>5.7435097647284294</v>
+        <v>7.1367205671564067</v>
       </c>
       <c r="D183">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C184">
         <f t="shared" si="6"/>
-        <v>6.7489628612561612</v>
+        <v>6.7715874808812551</v>
       </c>
       <c r="D184">
         <f t="shared" si="7"/>
@@ -5774,54 +5496,54 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C185">
         <f t="shared" si="6"/>
-        <v>5.6074550232146683</v>
+        <v>6.9405164849325676</v>
       </c>
       <c r="D185">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="C186">
         <f t="shared" si="6"/>
-        <v>4.8401060944567575</v>
+        <v>6.4653828514484184</v>
       </c>
       <c r="D186">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="8"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C187">
         <f t="shared" si="6"/>
-        <v>7.9503648543761232</v>
+        <v>6.9894498176666922</v>
       </c>
       <c r="D187">
         <f t="shared" si="7"/>
@@ -5834,14 +5556,14 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C188">
         <f t="shared" si="6"/>
-        <v>7.53655844257153</v>
+        <v>7.4099331233312942</v>
       </c>
       <c r="D188">
         <f t="shared" si="7"/>
@@ -5854,34 +5576,34 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C189">
         <f t="shared" si="6"/>
-        <v>6.4313637641589869</v>
+        <v>5.7331972651065692</v>
       </c>
       <c r="D189">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="8"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C190">
         <f t="shared" si="6"/>
-        <v>6.502427119984433</v>
+        <v>7.8382192219076261</v>
       </c>
       <c r="D190">
         <f t="shared" si="7"/>
@@ -5894,14 +5616,14 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C191">
         <f t="shared" si="6"/>
-        <v>6.4409090820652173</v>
+        <v>6.9148718175400505</v>
       </c>
       <c r="D191">
         <f t="shared" si="7"/>
@@ -5914,14 +5636,14 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C192">
         <f t="shared" si="6"/>
-        <v>7.7466341989375787</v>
+        <v>7.9854264740830017</v>
       </c>
       <c r="D192">
         <f t="shared" si="7"/>
@@ -5934,14 +5656,14 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C193">
         <f t="shared" si="6"/>
-        <v>8.790988475088815</v>
+        <v>6.6085260335771938</v>
       </c>
       <c r="D193">
         <f t="shared" si="7"/>
@@ -5954,74 +5676,74 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" si="9">LOG10(B194)</f>
-        <v>6.8488047010518036</v>
+        <v>5.1205739312058496</v>
       </c>
       <c r="D194">
         <f t="shared" ref="D194:D257" si="10">IF(C194&lt;6.05,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" ref="E194:E257" si="11">IF(D194=1,"常見","不常見")</f>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C195">
         <f t="shared" si="9"/>
-        <v>5.9854264740830017</v>
+        <v>7.3802112417116064</v>
       </c>
       <c r="D195">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C196">
         <f t="shared" si="9"/>
-        <v>7.909020854211156</v>
+        <v>5.5899496013257082</v>
       </c>
       <c r="D196">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C197">
         <f t="shared" si="9"/>
-        <v>7.5831987739686229</v>
+        <v>6.5954962218255737</v>
       </c>
       <c r="D197">
         <f t="shared" si="10"/>
@@ -6034,14 +5756,14 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C198">
         <f t="shared" si="9"/>
-        <v>7.3010299956639813</v>
+        <v>6.4424797690644482</v>
       </c>
       <c r="D198">
         <f t="shared" si="10"/>
@@ -6054,54 +5776,54 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C199">
         <f t="shared" si="9"/>
-        <v>4.5250448070368456</v>
+        <v>7.9319661147281728</v>
       </c>
       <c r="D199">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C200">
         <f t="shared" si="9"/>
-        <v>5.6170003411208986</v>
+        <v>7.6665179805548807</v>
       </c>
       <c r="D200">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C201">
         <f t="shared" si="9"/>
-        <v>6.1875207208364627</v>
+        <v>7.3891660843645326</v>
       </c>
       <c r="D201">
         <f t="shared" si="10"/>
@@ -6114,14 +5836,14 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C202">
         <f t="shared" si="9"/>
-        <v>7.1003705451175625</v>
+        <v>6.7972675408307168</v>
       </c>
       <c r="D202">
         <f t="shared" si="10"/>
@@ -6134,14 +5856,14 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C203">
         <f t="shared" si="9"/>
-        <v>6.7752462597402365</v>
+        <v>7.5078558716958312</v>
       </c>
       <c r="D203">
         <f t="shared" si="10"/>
@@ -6154,14 +5876,14 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C204">
         <f t="shared" si="9"/>
-        <v>6.4983105537896009</v>
+        <v>6.7481880270062007</v>
       </c>
       <c r="D204">
         <f t="shared" si="10"/>
@@ -6174,14 +5896,14 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C205">
         <f t="shared" si="9"/>
-        <v>8.4927603890268379</v>
+        <v>6.4623979978989565</v>
       </c>
       <c r="D205">
         <f t="shared" si="10"/>
@@ -6194,34 +5916,34 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C206">
         <f t="shared" si="9"/>
-        <v>6.7817553746524686</v>
+        <v>5.8149131812750738</v>
       </c>
       <c r="D206">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C207">
         <f t="shared" si="9"/>
-        <v>7.3344537511509307</v>
+        <v>7.357934847000454</v>
       </c>
       <c r="D207">
         <f t="shared" si="10"/>
@@ -6234,14 +5956,14 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C208">
         <f t="shared" si="9"/>
-        <v>8.3891660843645326</v>
+        <v>6.8518696007297661</v>
       </c>
       <c r="D208">
         <f t="shared" si="10"/>
@@ -6254,14 +5976,14 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C209">
         <f t="shared" si="9"/>
-        <v>3.9822712330395684</v>
+        <v>5.0293837776852097</v>
       </c>
       <c r="D209">
         <f t="shared" si="10"/>
@@ -6274,14 +5996,14 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C210">
         <f t="shared" si="9"/>
-        <v>4.9294189257142929</v>
+        <v>4.685741738602264</v>
       </c>
       <c r="D210">
         <f t="shared" si="10"/>
@@ -6294,14 +6016,14 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C211">
         <f t="shared" si="9"/>
-        <v>6.6106601630898796</v>
+        <v>7.3404441148401185</v>
       </c>
       <c r="D211">
         <f t="shared" si="10"/>
@@ -6314,74 +6036,74 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C212">
         <f t="shared" si="9"/>
-        <v>4.6665179805548807</v>
+        <v>7.4232458739368079</v>
       </c>
       <c r="D212">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C213">
         <f t="shared" si="9"/>
-        <v>6.6414741105040997</v>
+        <v>4.8007170782823847</v>
       </c>
       <c r="D213">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C214">
         <f t="shared" si="9"/>
-        <v>5.773054693364263</v>
+        <v>7.0170333392987807</v>
       </c>
       <c r="D214">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C215">
         <f t="shared" si="9"/>
-        <v>6.6374897295125104</v>
+        <v>6.6031443726201822</v>
       </c>
       <c r="D215">
         <f t="shared" si="10"/>
@@ -6394,94 +6116,94 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C216">
         <f t="shared" si="9"/>
-        <v>4.4361626470407565</v>
+        <v>6.5998830720736876</v>
       </c>
       <c r="D216">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C217">
         <f t="shared" si="9"/>
-        <v>6.4712917110589387</v>
+        <v>5.702430536445525</v>
       </c>
       <c r="D217">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B218" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C218">
         <f t="shared" si="9"/>
-        <v>3.910090545594068</v>
+        <v>7.6253124509616734</v>
       </c>
       <c r="D218">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C219">
         <f t="shared" si="9"/>
-        <v>5.0413926851582254</v>
+        <v>6.2121876044039581</v>
       </c>
       <c r="D219">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B220" t="s">
-        <v>435</v>
+        <v>268</v>
       </c>
       <c r="C220">
         <f t="shared" si="9"/>
-        <v>5.9956351945975497</v>
+        <v>5.4814426285023048</v>
       </c>
       <c r="D220">
         <f t="shared" si="10"/>
@@ -6494,54 +6216,54 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C221">
         <f t="shared" si="9"/>
-        <v>6.9858753573083936</v>
+        <v>5.5211380837040362</v>
       </c>
       <c r="D221">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C222">
         <f t="shared" si="9"/>
-        <v>6.0681858617461613</v>
+        <v>6.0374264979406238</v>
       </c>
       <c r="D222">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C223">
         <f t="shared" si="9"/>
-        <v>6.4216039268698308</v>
+        <v>6.1172712956557644</v>
       </c>
       <c r="D223">
         <f t="shared" si="10"/>
@@ -6554,34 +6276,34 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C224">
         <f t="shared" si="9"/>
-        <v>6.3404441148401185</v>
+        <v>5.4771212547196626</v>
       </c>
       <c r="D224">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C225">
         <f t="shared" si="9"/>
-        <v>7.3617278360175931</v>
+        <v>7.480006942957151</v>
       </c>
       <c r="D225">
         <f t="shared" si="10"/>
@@ -6594,94 +6316,94 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B226" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C226">
         <f t="shared" si="9"/>
-        <v>7.1613680022349753</v>
+        <v>4.1673173347481764</v>
       </c>
       <c r="D226">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B227" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C227">
         <f t="shared" si="9"/>
-        <v>6.6683859166900001</v>
+        <v>5.0253058652647704</v>
       </c>
       <c r="D227">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B228" t="s">
-        <v>451</v>
+        <v>130</v>
       </c>
       <c r="C228">
         <f t="shared" si="9"/>
-        <v>6.920645001406788</v>
+        <v>5.3324384599156049</v>
       </c>
       <c r="D228">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C229">
         <f t="shared" si="9"/>
-        <v>6.7007037171450197</v>
+        <v>6.008600171761918</v>
       </c>
       <c r="D229">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B230" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="C230">
         <f t="shared" si="9"/>
-        <v>6.9542425094393252</v>
+        <v>6.4814426285023048</v>
       </c>
       <c r="D230">
         <f t="shared" si="10"/>
@@ -6694,54 +6416,54 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B231" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C231">
         <f t="shared" si="9"/>
-        <v>7.3909351071033793</v>
+        <v>5.8887409606828927</v>
       </c>
       <c r="D231">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B232" t="s">
-        <v>458</v>
+        <v>290</v>
       </c>
       <c r="C232">
         <f t="shared" si="9"/>
-        <v>5.6848453616444123</v>
+        <v>7.782472624166286</v>
       </c>
       <c r="D232">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="11"/>
-        <v>不常見</v>
+        <v>常見</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B233" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C233">
         <f t="shared" si="9"/>
-        <v>7.924279286061882</v>
+        <v>6.4668676203541091</v>
       </c>
       <c r="D233">
         <f t="shared" si="10"/>
@@ -6754,14 +6476,14 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B234" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C234">
         <f t="shared" si="9"/>
-        <v>6.9628426812012423</v>
+        <v>6.1986570869544222</v>
       </c>
       <c r="D234">
         <f t="shared" si="10"/>
@@ -6774,14 +6496,14 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B235" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C235">
         <f t="shared" si="9"/>
-        <v>7.8299466959416355</v>
+        <v>6.8779469516291885</v>
       </c>
       <c r="D235">
         <f t="shared" si="10"/>
@@ -6794,14 +6516,14 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B236" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C236">
         <f t="shared" si="9"/>
-        <v>8.0606978403536118</v>
+        <v>6.989004615698537</v>
       </c>
       <c r="D236">
         <f t="shared" si="10"/>
@@ -6814,34 +6536,34 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B237" t="s">
-        <v>468</v>
+        <v>30</v>
       </c>
       <c r="C237">
         <f t="shared" si="9"/>
-        <v>6.4166405073382808</v>
+        <v>5.5453071164658239</v>
       </c>
       <c r="D237">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B238" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C238">
         <f t="shared" si="9"/>
-        <v>5.173186268412274</v>
+        <v>4.7664128471123997</v>
       </c>
       <c r="D238">
         <f t="shared" si="10"/>
@@ -6854,14 +6576,14 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B239" t="s">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="C239">
         <f t="shared" si="9"/>
-        <v>7.0606978403536118</v>
+        <v>6.1702617153949575</v>
       </c>
       <c r="D239">
         <f t="shared" si="10"/>
@@ -6874,14 +6596,14 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B240" t="s">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="C240">
         <f t="shared" si="9"/>
-        <v>5.6074550232146683</v>
+        <v>5.6627578316815743</v>
       </c>
       <c r="D240">
         <f t="shared" si="10"/>
@@ -6894,14 +6616,14 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B241" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C241">
         <f t="shared" si="9"/>
-        <v>6.4593924877592306</v>
+        <v>6.8819549713396002</v>
       </c>
       <c r="D241">
         <f t="shared" si="10"/>
@@ -6914,54 +6636,54 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B242" t="s">
-        <v>327</v>
+        <v>472</v>
       </c>
       <c r="C242">
         <f t="shared" si="9"/>
-        <v>6.4232458739368079</v>
+        <v>5.5158738437116792</v>
       </c>
       <c r="D242">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C243">
         <f t="shared" si="9"/>
-        <v>7.5440680443502757</v>
+        <v>4.4842998393467859</v>
       </c>
       <c r="D243">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
+        <v>不常見</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C244">
         <f t="shared" si="9"/>
-        <v>7.6821450763738319</v>
+        <v>8.1731862684122749</v>
       </c>
       <c r="D244">
         <f t="shared" si="10"/>
@@ -6974,14 +6696,14 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B245" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="C245">
         <f t="shared" si="9"/>
-        <v>7.5831987739686229</v>
+        <v>6.4232458739368079</v>
       </c>
       <c r="D245">
         <f t="shared" si="10"/>
@@ -6994,14 +6716,14 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B246" t="s">
-        <v>482</v>
+        <v>359</v>
       </c>
       <c r="C246">
         <f t="shared" si="9"/>
-        <v>6.9153998352122699</v>
+        <v>7.1367205671564067</v>
       </c>
       <c r="D246">
         <f t="shared" si="10"/>
@@ -7009,946 +6731,6 @@
       </c>
       <c r="E246" t="str">
         <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>483</v>
-      </c>
-      <c r="B247" t="s">
-        <v>484</v>
-      </c>
-      <c r="C247">
-        <f t="shared" si="9"/>
-        <v>7.2013971243204518</v>
-      </c>
-      <c r="D247">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E247" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>485</v>
-      </c>
-      <c r="B248" t="s">
-        <v>486</v>
-      </c>
-      <c r="C248">
-        <f t="shared" si="9"/>
-        <v>6.7686381012476149</v>
-      </c>
-      <c r="D248">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E248" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>487</v>
-      </c>
-      <c r="B249" t="s">
-        <v>488</v>
-      </c>
-      <c r="C249">
-        <f t="shared" si="9"/>
-        <v>6.5132176000679394</v>
-      </c>
-      <c r="D249">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E249" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>489</v>
-      </c>
-      <c r="B250" t="s">
-        <v>490</v>
-      </c>
-      <c r="C250">
-        <f t="shared" si="9"/>
-        <v>5.8055008581583998</v>
-      </c>
-      <c r="D250">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E250" t="str">
-        <f t="shared" si="11"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>491</v>
-      </c>
-      <c r="B251" t="s">
-        <v>492</v>
-      </c>
-      <c r="C251">
-        <f t="shared" si="9"/>
-        <v>7.3979400086720375</v>
-      </c>
-      <c r="D251">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E251" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>493</v>
-      </c>
-      <c r="B252" t="s">
-        <v>494</v>
-      </c>
-      <c r="C252">
-        <f t="shared" si="9"/>
-        <v>6.943494515906103</v>
-      </c>
-      <c r="D252">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E252" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>495</v>
-      </c>
-      <c r="B253" t="s">
-        <v>496</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="9"/>
-        <v>4.989004615698537</v>
-      </c>
-      <c r="D253">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E253" t="str">
-        <f t="shared" si="11"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>497</v>
-      </c>
-      <c r="B254" t="s">
-        <v>498</v>
-      </c>
-      <c r="C254">
-        <f t="shared" si="9"/>
-        <v>4.7234556720351861</v>
-      </c>
-      <c r="D254">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E254" t="str">
-        <f t="shared" si="11"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>499</v>
-      </c>
-      <c r="B255" t="s">
-        <v>500</v>
-      </c>
-      <c r="C255">
-        <f t="shared" si="9"/>
-        <v>7.4345689040341991</v>
-      </c>
-      <c r="D255">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E255" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>501</v>
-      </c>
-      <c r="B256" t="s">
-        <v>502</v>
-      </c>
-      <c r="C256">
-        <f t="shared" si="9"/>
-        <v>7.3820170425748683</v>
-      </c>
-      <c r="D256">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E256" t="str">
-        <f t="shared" si="11"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>503</v>
-      </c>
-      <c r="B257" t="s">
-        <v>504</v>
-      </c>
-      <c r="C257">
-        <f t="shared" si="9"/>
-        <v>4.773054693364263</v>
-      </c>
-      <c r="D257">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E257" t="str">
-        <f t="shared" si="11"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>505</v>
-      </c>
-      <c r="B258" t="s">
-        <v>506</v>
-      </c>
-      <c r="C258">
-        <f t="shared" ref="C258:C293" si="12">LOG10(B258)</f>
-        <v>7.012837224705172</v>
-      </c>
-      <c r="D258">
-        <f t="shared" ref="D258:D293" si="13">IF(C258&lt;6.05,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E258" t="str">
-        <f t="shared" ref="E258:E293" si="14">IF(D258=1,"常見","不常見")</f>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>507</v>
-      </c>
-      <c r="B259" t="s">
-        <v>508</v>
-      </c>
-      <c r="C259">
-        <f t="shared" si="12"/>
-        <v>7.3598354823398884</v>
-      </c>
-      <c r="D259">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E259" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>509</v>
-      </c>
-      <c r="B260" t="s">
-        <v>510</v>
-      </c>
-      <c r="C260">
-        <f t="shared" si="12"/>
-        <v>7.1205739312058496</v>
-      </c>
-      <c r="D260">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E260" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>511</v>
-      </c>
-      <c r="B261" t="s">
-        <v>512</v>
-      </c>
-      <c r="C261">
-        <f t="shared" si="12"/>
-        <v>6.7481880270062007</v>
-      </c>
-      <c r="D261">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E261" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>513</v>
-      </c>
-      <c r="B262" t="s">
-        <v>514</v>
-      </c>
-      <c r="C262">
-        <f t="shared" si="12"/>
-        <v>6.4668676203541091</v>
-      </c>
-      <c r="D262">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E262" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>515</v>
-      </c>
-      <c r="B263" t="s">
-        <v>516</v>
-      </c>
-      <c r="C263">
-        <f t="shared" si="12"/>
-        <v>5.6334684555795862</v>
-      </c>
-      <c r="D263">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E263" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>517</v>
-      </c>
-      <c r="B264" t="s">
-        <v>518</v>
-      </c>
-      <c r="C264">
-        <f t="shared" si="12"/>
-        <v>7.5301996982030825</v>
-      </c>
-      <c r="D264">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E264" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>519</v>
-      </c>
-      <c r="B265" t="s">
-        <v>305</v>
-      </c>
-      <c r="C265">
-        <f t="shared" si="12"/>
-        <v>6.1492191126553797</v>
-      </c>
-      <c r="D265">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E265" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>520</v>
-      </c>
-      <c r="B266" t="s">
-        <v>521</v>
-      </c>
-      <c r="C266">
-        <f t="shared" si="12"/>
-        <v>5.509202522331103</v>
-      </c>
-      <c r="D266">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E266" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>522</v>
-      </c>
-      <c r="B267" t="s">
-        <v>523</v>
-      </c>
-      <c r="C267">
-        <f t="shared" si="12"/>
-        <v>5.5976951859255122</v>
-      </c>
-      <c r="D267">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E267" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>524</v>
-      </c>
-      <c r="B268" t="s">
-        <v>525</v>
-      </c>
-      <c r="C268">
-        <f t="shared" si="12"/>
-        <v>6.0211892990699383</v>
-      </c>
-      <c r="D268">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E268" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>526</v>
-      </c>
-      <c r="B269" t="s">
-        <v>293</v>
-      </c>
-      <c r="C269">
-        <f t="shared" si="12"/>
-        <v>6.1003705451175625</v>
-      </c>
-      <c r="D269">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E269" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>527</v>
-      </c>
-      <c r="B270" t="s">
-        <v>528</v>
-      </c>
-      <c r="C270">
-        <f t="shared" si="12"/>
-        <v>5.4996870826184034</v>
-      </c>
-      <c r="D270">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E270" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>529</v>
-      </c>
-      <c r="B271" t="s">
-        <v>530</v>
-      </c>
-      <c r="C271">
-        <f t="shared" si="12"/>
-        <v>7.2405492482825995</v>
-      </c>
-      <c r="D271">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E271" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>531</v>
-      </c>
-      <c r="B272" t="s">
-        <v>532</v>
-      </c>
-      <c r="C272">
-        <f t="shared" si="12"/>
-        <v>4.204119982655925</v>
-      </c>
-      <c r="D272">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E272" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>533</v>
-      </c>
-      <c r="B273" t="s">
-        <v>534</v>
-      </c>
-      <c r="C273">
-        <f t="shared" si="12"/>
-        <v>5.0569048513364727</v>
-      </c>
-      <c r="D273">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E273" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>535</v>
-      </c>
-      <c r="B274" t="s">
-        <v>536</v>
-      </c>
-      <c r="C274">
-        <f t="shared" si="12"/>
-        <v>5.4653828514484184</v>
-      </c>
-      <c r="D274">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E274" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>537</v>
-      </c>
-      <c r="B275" t="s">
-        <v>538</v>
-      </c>
-      <c r="C275">
-        <f t="shared" si="12"/>
-        <v>6.1818435879447726</v>
-      </c>
-      <c r="D275">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E275" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>539</v>
-      </c>
-      <c r="B276" t="s">
-        <v>540</v>
-      </c>
-      <c r="C276">
-        <f t="shared" si="12"/>
-        <v>6.4885507165004439</v>
-      </c>
-      <c r="D276">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E276" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>541</v>
-      </c>
-      <c r="B277" t="s">
-        <v>542</v>
-      </c>
-      <c r="C277">
-        <f t="shared" si="12"/>
-        <v>5.8518696007297661</v>
-      </c>
-      <c r="D277">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E277" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>543</v>
-      </c>
-      <c r="B278" t="s">
-        <v>544</v>
-      </c>
-      <c r="C278">
-        <f t="shared" si="12"/>
-        <v>7.6314437690131722</v>
-      </c>
-      <c r="D278">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E278" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>545</v>
-      </c>
-      <c r="B279" t="s">
-        <v>546</v>
-      </c>
-      <c r="C279">
-        <f t="shared" si="12"/>
-        <v>6.4345689040341991</v>
-      </c>
-      <c r="D279">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E279" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>547</v>
-      </c>
-      <c r="B280" t="s">
-        <v>131</v>
-      </c>
-      <c r="C280">
-        <f t="shared" si="12"/>
-        <v>6.4548448600085102</v>
-      </c>
-      <c r="D280">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E280" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>548</v>
-      </c>
-      <c r="B281" t="s">
-        <v>269</v>
-      </c>
-      <c r="C281">
-        <f t="shared" si="12"/>
-        <v>5.6839471307515126</v>
-      </c>
-      <c r="D281">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E281" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>549</v>
-      </c>
-      <c r="B282" t="s">
-        <v>550</v>
-      </c>
-      <c r="C282">
-        <f t="shared" si="12"/>
-        <v>6.9003671286564705</v>
-      </c>
-      <c r="D282">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E282" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>551</v>
-      </c>
-      <c r="B283" t="s">
-        <v>552</v>
-      </c>
-      <c r="C283">
-        <f t="shared" si="12"/>
-        <v>6.9232440186302764</v>
-      </c>
-      <c r="D283">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E283" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>553</v>
-      </c>
-      <c r="B284" t="s">
-        <v>554</v>
-      </c>
-      <c r="C284">
-        <f t="shared" si="12"/>
-        <v>5.510545010206612</v>
-      </c>
-      <c r="D284">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E284" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>555</v>
-      </c>
-      <c r="B285" t="s">
-        <v>556</v>
-      </c>
-      <c r="C285">
-        <f t="shared" si="12"/>
-        <v>4.7543483357110192</v>
-      </c>
-      <c r="D285">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E285" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>557</v>
-      </c>
-      <c r="B286" t="s">
-        <v>558</v>
-      </c>
-      <c r="C286">
-        <f t="shared" si="12"/>
-        <v>6.3263358609287517</v>
-      </c>
-      <c r="D286">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E286" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>559</v>
-      </c>
-      <c r="B287" t="s">
-        <v>560</v>
-      </c>
-      <c r="C287">
-        <f t="shared" si="12"/>
-        <v>5.6776069527204935</v>
-      </c>
-      <c r="D287">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E287" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>561</v>
-      </c>
-      <c r="B288" t="s">
-        <v>249</v>
-      </c>
-      <c r="C288">
-        <f t="shared" si="12"/>
-        <v>6.836324115706752</v>
-      </c>
-      <c r="D288">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E288" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>562</v>
-      </c>
-      <c r="B289" t="s">
-        <v>563</v>
-      </c>
-      <c r="C289">
-        <f t="shared" si="12"/>
-        <v>5.4668676203541091</v>
-      </c>
-      <c r="D289">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E289" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>564</v>
-      </c>
-      <c r="B290" t="s">
-        <v>565</v>
-      </c>
-      <c r="C290">
-        <f t="shared" si="12"/>
-        <v>4.480006942957151</v>
-      </c>
-      <c r="D290">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E290" t="str">
-        <f t="shared" si="14"/>
-        <v>不常見</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>566</v>
-      </c>
-      <c r="B291" t="s">
-        <v>567</v>
-      </c>
-      <c r="C291">
-        <f t="shared" si="12"/>
-        <v>8.3031960574204895</v>
-      </c>
-      <c r="D291">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E291" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>568</v>
-      </c>
-      <c r="B292" t="s">
-        <v>569</v>
-      </c>
-      <c r="C292">
-        <f t="shared" si="12"/>
-        <v>6.4440447959180762</v>
-      </c>
-      <c r="D292">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E292" t="str">
-        <f t="shared" si="14"/>
-        <v>常見</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>570</v>
-      </c>
-      <c r="B293" t="s">
-        <v>447</v>
-      </c>
-      <c r="C293">
-        <f t="shared" si="12"/>
-        <v>7.1613680022349753</v>
-      </c>
-      <c r="D293">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E293" t="str">
-        <f t="shared" si="14"/>
         <v>常見</v>
       </c>
     </row>
